--- a/wdc_libs/parsers/wdc-timeline/timeline.xlsx
+++ b/wdc_libs/parsers/wdc-timeline/timeline.xlsx
@@ -1417,7 +1417,7 @@
   <dimension ref="A1:E865"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,7 +1523,7 @@
         <v>2016</v>
       </c>
       <c r="E6" s="19">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
@@ -1540,7 +1540,7 @@
         <v>2016</v>
       </c>
       <c r="E7" s="19">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
@@ -1625,7 +1625,7 @@
         <v>2016</v>
       </c>
       <c r="E12" s="19">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">

--- a/wdc_libs/parsers/wdc-timeline/timeline.xlsx
+++ b/wdc_libs/parsers/wdc-timeline/timeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="15120" windowHeight="7830" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="15120" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="135">
   <si>
     <t>key</t>
   </si>
@@ -49,9 +49,6 @@
     <t>value.en</t>
   </si>
   <si>
-    <t>value.ua</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -67,24 +64,15 @@
     <t>end</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Мінімізація гальмуючих факторів для соціо-економічного розвитку України</t>
   </si>
   <si>
     <t xml:space="preserve">Послідовність дій влади, спрямованих на мінімізацію Топ-5 гальмуючих факторів для соціо-економічного розвитку України на часовому відрізку 2016-2020 роки </t>
   </si>
   <si>
-    <t>B.1</t>
-  </si>
-  <si>
     <t>Частка тіньової економіки  (% від ВВП)</t>
   </si>
   <si>
-    <t>B.1.1</t>
-  </si>
-  <si>
     <t>Реформування податкової системи</t>
   </si>
   <si>
@@ -94,96 +82,60 @@
     <t>Оскільки ринок землі в сучасній Україні є тіньовим і непрозорим, ця обставина призводить до вилучення з національної економіки від 15% до 20% від ВВП. Олігархічний, латіффундістский устрій аграрного сектора України, який сконцентрував десятки і сотні тисяч гектарів землі, не дає можливості розвитку малим і середнім фермерським господарствам (ділянки землі від декількох гектарів до декількох сотень гектарів). Він унеможливлює конкуренцію і перехід аграрного сектора України на високотехнологічні уклади задля виробництва продуктів харчування високих ступеней переробки. Ці обставини впритул наблизили Україну до переходу на цивілізований, підконтрольний державі і прозорий для громадянського суспільства, ринку землі. Такий перехід, який для умов України може продовжуватися в часі від 5 до 15 років, потребує системного вирішення ряду нових проблем: створення локальної фінансово кредитної системи для АПК, включаючи земельний банк; створення системи страхування для АПК; за прикладом Японії, підтримки малих і середніх фермерських господарств, діяльність яких має координуватися кооперативними утвореннями; перехід АПК на вищі технологічні уклади з метою виробництва якісних продуктів харчування високих ступеней переробки.</t>
   </si>
   <si>
-    <t>B.2</t>
-  </si>
-  <si>
     <t>Масштаб корупції (% від ВВП)</t>
   </si>
   <si>
-    <t>B.2.1</t>
-  </si>
-  <si>
     <t>Масштабна лібералізація економіки</t>
   </si>
   <si>
     <t xml:space="preserve"> скасування більшості узгоджувальних інстанцій в економіці і суспільстві, зменшення кількості службовців цих ланок від 30% до 40%.</t>
   </si>
   <si>
-    <t>B.2.2</t>
-  </si>
-  <si>
     <t>Введення відкритих електронних форм звітності</t>
   </si>
   <si>
     <t>Введення відкритих в інформаційному просторі електронних форм звітності стосовно прибутків та видатків державних службовців, близьких членів їх сімей та осіб, що до них прирівнюються.</t>
   </si>
   <si>
-    <t>B.2.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Посилення відповідальності за ухилення від публічної звітності </t>
   </si>
   <si>
     <t>Посилення відповідальності за ухилення від публічної звітності про отримані прибутки та здійснені видатки для осіб, що пов’язані з державною службою, для близьких членів їх сімей, або до осіб, що до них прирівнюються.</t>
   </si>
   <si>
-    <t>B.3</t>
-  </si>
-  <si>
     <t>Пенсійне навантаження на бюджет (% від ВВП)</t>
   </si>
   <si>
-    <t>B.3.1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Введення паралельно з солідарною пенсійною системою накопичувальної пенсійної системи</t>
   </si>
   <si>
     <t>Введення паралельно з солідарною пенсійною системою накопичувальної пенсійної системи та створення фінансових інститутів (можливо з участю іноземних учасників) для гарантування та страхування накопичуваних пенсійних вкладів населення.</t>
   </si>
   <si>
-    <t>B.4</t>
-  </si>
-  <si>
     <t>Обслуговування державного боргу   (% від ВВП)</t>
   </si>
   <si>
-    <t>B.4.1</t>
-  </si>
-  <si>
     <t>Укладання з кредиторами договорів про зміну умов боргу</t>
   </si>
   <si>
     <t>Для послаблення боргового тиску на бюджет та платіжний баланс, а також створення умов для економічного зростання, виконавчим органам влади доцільно досягти укладання з кредиторами договорів про зміну умов боргу на умовах зниження виплат та обміну боргових зобов’язань країни на її активи;</t>
   </si>
   <si>
-    <t>B.4.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Реструктуризація державної заборгованості </t>
   </si>
   <si>
     <t>Шляхом досягнення домовленостей з міжнародними кредиторами необхідно забезпечити реструктуризацію державної заборгованості з її концентрацією на внутрішні кредитні ресурси, довгострокові позики із фіксованими відсотковими ставками, суттєве зменшення гарантованих державою боргів, збереження оптимальних рівнів заборгованості відносно ВВП, використання державних запозичень на інвестування з метою розвитку національної економіки та орієнтацію на фінансування активних державних видатків</t>
   </si>
   <si>
-    <t>B.5</t>
-  </si>
-  <si>
     <t>Енергомісткість ВВП України  (кг.н.е./дол. США)</t>
   </si>
   <si>
-    <t>B.5.1</t>
-  </si>
-  <si>
     <t>Зменшення енергоємності ВВП</t>
   </si>
   <si>
     <t xml:space="preserve"> Для зменшення енергоємності ВВП в Україні і, як наслідок, зниження собівартості продукції та підвищення її конкурентоздатності в державі необхідно  здійснити  низку дій за  такими  напрямами [Б. В. Слупський, завдання впровадження Європейських норм і стандартів з Енергоефективності та Енергозбереження в Україні, Механізми державного    управління, 2010, с. 97-99]: </t>
   </si>
   <si>
-    <t>B.5.2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Перехід   економіки  на "інтелектуальні"  технології </t>
   </si>
   <si>
@@ -214,9 +166,6 @@
     <t>Для стрімкого росту економіки України, податок на прибуток для фізичних осіб має бути встановлено за прогресивною шкалою в діапазоні від 5% для низьких прибутків до 17% для високих. Для юридичних осіб – в діапазоні 15%-17%. Податок з обороту – в діапазоні 3%-5%. Податок від доходів, пов’язаних з володінням нерухомістю має бути встановлено за ставкою, що не перевищує 15%. ПДВ має бути скасовано. Лібералізація податкової системи має проводитися одночасно з підвищенням відповідальності фізичних і юридичних осіб за порушення податкового законодавства.</t>
   </si>
   <si>
-    <t>B.1.2</t>
-  </si>
-  <si>
     <t>2016:B.5.2:2019:-</t>
   </si>
   <si>
@@ -353,13 +302,136 @@
   </si>
   <si>
     <t>b.b9</t>
+  </si>
+  <si>
+    <t>value.label</t>
+  </si>
+  <si>
+    <t>#t0</t>
+  </si>
+  <si>
+    <t>#t1</t>
+  </si>
+  <si>
+    <t>#t2</t>
+  </si>
+  <si>
+    <t>#t3</t>
+  </si>
+  <si>
+    <t>#t4</t>
+  </si>
+  <si>
+    <t>#t5</t>
+  </si>
+  <si>
+    <t>#t6</t>
+  </si>
+  <si>
+    <t>#t7</t>
+  </si>
+  <si>
+    <t>#t8</t>
+  </si>
+  <si>
+    <t>#t9</t>
+  </si>
+  <si>
+    <t>#t10</t>
+  </si>
+  <si>
+    <t>#t11</t>
+  </si>
+  <si>
+    <t>#t12</t>
+  </si>
+  <si>
+    <t>#t13</t>
+  </si>
+  <si>
+    <t>#t14</t>
+  </si>
+  <si>
+    <t>#tc1</t>
+  </si>
+  <si>
+    <t>#tc2</t>
+  </si>
+  <si>
+    <t>#tc3</t>
+  </si>
+  <si>
+    <t>#tc4</t>
+  </si>
+  <si>
+    <t>#tc5</t>
+  </si>
+  <si>
+    <t>value.uk</t>
+  </si>
+  <si>
+    <t>Minimization of inhibitory factors for socio-economic development of Ukraine</t>
+  </si>
+  <si>
+    <t>The share of shadow economy (% of GDP)</t>
+  </si>
+  <si>
+    <t>Reform of tax system</t>
+  </si>
+  <si>
+    <t>The transition to a civilized land market</t>
+  </si>
+  <si>
+    <t>The scale of corruption (% of GDP)</t>
+  </si>
+  <si>
+    <t>Large-scale economic liberalization</t>
+  </si>
+  <si>
+    <t>The introduction of open electronic reporting forms</t>
+  </si>
+  <si>
+    <t>Increased responsibility for avoiding public accountability</t>
+  </si>
+  <si>
+    <t>Pension burden on the budget (% of GDP)</t>
+  </si>
+  <si>
+    <t>The introduction of parallel pension system funded pension system</t>
+  </si>
+  <si>
+    <t>Maintenance of public debt (% of GDP)</t>
+  </si>
+  <si>
+    <t>Conclusion of agreements with creditors to change the terms of debt</t>
+  </si>
+  <si>
+    <t>The restructuring of public debt</t>
+  </si>
+  <si>
+    <t>Energy intensity of GDP Ukraine (kh.n.e. / USD. USA)</t>
+  </si>
+  <si>
+    <t>Reducing the energy intensity of GDP</t>
+  </si>
+  <si>
+    <t>The transition of the economy to "intelligent" technology</t>
+  </si>
+  <si>
+    <t>#t15</t>
+  </si>
+  <si>
+    <t>./api/resource/timeline-seo3-100-512.png</t>
+  </si>
+  <si>
+    <t>./api/resource/query based charts-appicom.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,13 +455,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF252525"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -471,7 +536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -504,7 +569,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -520,19 +584,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -875,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -883,23 +944,23 @@
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -912,58 +973,58 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -973,328 +1034,392 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J3" activeCellId="1" sqref="J3 J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="26.28515625" style="4"/>
+    <col min="2" max="2" width="16.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="26.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-    </row>
-    <row r="7" spans="1:9" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-    </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-    </row>
-    <row r="16" spans="1:9" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1304,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,87 +1449,239 @@
         <v>8</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1416,3706 +1693,3706 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E865"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="8.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.140625" style="16"/>
+    <col min="2" max="2" width="8.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="23" t="s">
+    </row>
+    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="18">
+        <v>2016</v>
+      </c>
+      <c r="E3" s="18">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="18">
+        <v>2016</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2016</v>
+      </c>
+      <c r="E5" s="18">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2016</v>
+      </c>
+      <c r="E6" s="18">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2016</v>
+      </c>
+      <c r="E7" s="18">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="B8" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2016</v>
+      </c>
+      <c r="E8" s="18">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="19">
+      <c r="B9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="18">
         <v>2016</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E9" s="18">
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="23" t="s">
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="19">
+      <c r="B10" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="18">
         <v>2016</v>
       </c>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="E10" s="18">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2016</v>
+      </c>
+      <c r="E11" s="18">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="18">
+        <v>2016</v>
+      </c>
+      <c r="E12" s="18">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="18">
+        <v>2016</v>
+      </c>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="18">
+        <v>2017</v>
+      </c>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2018</v>
+      </c>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="18">
+        <v>2019</v>
+      </c>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="18">
+        <v>2020</v>
+      </c>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2021</v>
+      </c>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="19">
-        <v>2016</v>
-      </c>
-      <c r="E5" s="19">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="19">
-        <v>2016</v>
-      </c>
-      <c r="E6" s="19">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="19">
-        <v>2016</v>
-      </c>
-      <c r="E7" s="19">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="19">
-        <v>2016</v>
-      </c>
-      <c r="E8" s="19">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="19">
-        <v>2016</v>
-      </c>
-      <c r="E9" s="19">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="19">
-        <v>2016</v>
-      </c>
-      <c r="E10" s="19">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="19">
-        <v>2016</v>
-      </c>
-      <c r="E11" s="19">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="19">
-        <v>2016</v>
-      </c>
-      <c r="E12" s="19">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="19">
-        <v>2016</v>
-      </c>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="19">
-        <v>2017</v>
-      </c>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="19">
-        <v>2018</v>
-      </c>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="19">
-        <v>2019</v>
-      </c>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="19">
-        <v>2020</v>
-      </c>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="19">
-        <v>2021</v>
-      </c>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="19">
+      <c r="B19" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="18">
         <v>2022</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="14"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="14"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="A22" s="14"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="14"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="A24" s="14"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="A25" s="14"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="A26" s="14"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="A27" s="14"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="A28" s="14"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="A29" s="14"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="A30" s="14"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="D31" s="15"/>
+      <c r="A31" s="14"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="A32" s="14"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="A33" s="14"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="A34" s="14"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="A35" s="14"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="A36" s="14"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="A37" s="14"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="A38" s="14"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="A39" s="14"/>
+      <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="D40" s="15"/>
+      <c r="A40" s="14"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="D41" s="15"/>
+      <c r="A41" s="14"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="D42" s="15"/>
+      <c r="A42" s="14"/>
+      <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="D43" s="15"/>
+      <c r="A43" s="14"/>
+      <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="D44" s="15"/>
+      <c r="A44" s="14"/>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="D45" s="15"/>
+      <c r="A45" s="14"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="D46" s="15"/>
+      <c r="A46" s="14"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="D47" s="15"/>
+      <c r="A47" s="14"/>
+      <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="D48" s="15"/>
+      <c r="A48" s="14"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="D49" s="15"/>
+      <c r="A49" s="14"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="D50" s="15"/>
+      <c r="A50" s="14"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="D51" s="15"/>
+      <c r="A51" s="14"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="D52" s="15"/>
+      <c r="A52" s="14"/>
+      <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="D53" s="15"/>
+      <c r="A53" s="14"/>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="D54" s="15"/>
+      <c r="A54" s="14"/>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="D55" s="15"/>
+      <c r="A55" s="14"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="D56" s="15"/>
+      <c r="A56" s="14"/>
+      <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="D57" s="15"/>
+      <c r="A57" s="14"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="D58" s="15"/>
+      <c r="A58" s="14"/>
+      <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="D59" s="15"/>
+      <c r="A59" s="14"/>
+      <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="D60" s="15"/>
+      <c r="A60" s="14"/>
+      <c r="D60" s="14"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="D61" s="15"/>
+      <c r="A61" s="14"/>
+      <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="D62" s="15"/>
+      <c r="A62" s="14"/>
+      <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="D63" s="15"/>
+      <c r="A63" s="14"/>
+      <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="D64" s="15"/>
+      <c r="A64" s="14"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="A65" s="14"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="D66" s="15"/>
+      <c r="A66" s="14"/>
+      <c r="D66" s="14"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="D67" s="15"/>
+      <c r="A67" s="14"/>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="D68" s="15"/>
+      <c r="A68" s="14"/>
+      <c r="D68" s="14"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="D69" s="15"/>
+      <c r="A69" s="14"/>
+      <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="D70" s="15"/>
+      <c r="A70" s="14"/>
+      <c r="D70" s="14"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="D71" s="15"/>
+      <c r="A71" s="14"/>
+      <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="D72" s="15"/>
+      <c r="A72" s="14"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="D73" s="15"/>
+      <c r="A73" s="14"/>
+      <c r="D73" s="14"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="D74" s="15"/>
+      <c r="A74" s="14"/>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
-      <c r="D75" s="15"/>
+      <c r="A75" s="14"/>
+      <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="A76" s="14"/>
+      <c r="D76" s="14"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="D77" s="15"/>
+      <c r="A77" s="14"/>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="D78" s="15"/>
+      <c r="A78" s="14"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="D79" s="15"/>
+      <c r="A79" s="14"/>
+      <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="D80" s="15"/>
+      <c r="A80" s="14"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="D81" s="15"/>
+      <c r="A81" s="14"/>
+      <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="A82" s="14"/>
+      <c r="D82" s="14"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-      <c r="D83" s="15"/>
+      <c r="A83" s="14"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="D84" s="15"/>
+      <c r="A84" s="14"/>
+      <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
-      <c r="D85" s="15"/>
+      <c r="A85" s="14"/>
+      <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
-      <c r="D86" s="15"/>
+      <c r="A86" s="14"/>
+      <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
-      <c r="D87" s="15"/>
+      <c r="A87" s="14"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
-      <c r="D88" s="15"/>
+      <c r="A88" s="14"/>
+      <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
-      <c r="D89" s="15"/>
+      <c r="A89" s="14"/>
+      <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="15"/>
-      <c r="D90" s="15"/>
+      <c r="A90" s="14"/>
+      <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="15"/>
-      <c r="D91" s="15"/>
+      <c r="A91" s="14"/>
+      <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
-      <c r="D92" s="15"/>
+      <c r="A92" s="14"/>
+      <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
-      <c r="D93" s="15"/>
+      <c r="A93" s="14"/>
+      <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
-      <c r="D94" s="15"/>
+      <c r="A94" s="14"/>
+      <c r="D94" s="14"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
-      <c r="D95" s="15"/>
+      <c r="A95" s="14"/>
+      <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="15"/>
-      <c r="D96" s="15"/>
+      <c r="A96" s="14"/>
+      <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-      <c r="D97" s="15"/>
+      <c r="A97" s="14"/>
+      <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="15"/>
-      <c r="D98" s="15"/>
+      <c r="A98" s="14"/>
+      <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
-      <c r="D99" s="15"/>
+      <c r="A99" s="14"/>
+      <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="15"/>
-      <c r="D100" s="15"/>
+      <c r="A100" s="14"/>
+      <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
-      <c r="D101" s="15"/>
+      <c r="A101" s="14"/>
+      <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="15"/>
-      <c r="D102" s="15"/>
+      <c r="A102" s="14"/>
+      <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="D103" s="15"/>
+      <c r="A103" s="14"/>
+      <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
-      <c r="D104" s="15"/>
+      <c r="A104" s="14"/>
+      <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="15"/>
-      <c r="D105" s="15"/>
+      <c r="A105" s="14"/>
+      <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
-      <c r="D106" s="15"/>
+      <c r="A106" s="14"/>
+      <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
-      <c r="D107" s="15"/>
+      <c r="A107" s="14"/>
+      <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
-      <c r="D108" s="15"/>
+      <c r="A108" s="14"/>
+      <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
-      <c r="D109" s="15"/>
+      <c r="A109" s="14"/>
+      <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
-      <c r="D110" s="15"/>
+      <c r="A110" s="14"/>
+      <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="D111" s="15"/>
+      <c r="A111" s="14"/>
+      <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
-      <c r="D112" s="15"/>
+      <c r="A112" s="14"/>
+      <c r="D112" s="14"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="15"/>
-      <c r="D113" s="15"/>
+      <c r="A113" s="14"/>
+      <c r="D113" s="14"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="15"/>
-      <c r="D114" s="15"/>
+      <c r="A114" s="14"/>
+      <c r="D114" s="14"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
-      <c r="D115" s="15"/>
+      <c r="A115" s="14"/>
+      <c r="D115" s="14"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
-      <c r="D116" s="15"/>
+      <c r="A116" s="14"/>
+      <c r="D116" s="14"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="15"/>
-      <c r="D117" s="15"/>
+      <c r="A117" s="14"/>
+      <c r="D117" s="14"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="15"/>
-      <c r="D118" s="15"/>
+      <c r="A118" s="14"/>
+      <c r="D118" s="14"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="15"/>
-      <c r="D119" s="15"/>
+      <c r="A119" s="14"/>
+      <c r="D119" s="14"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="15"/>
-      <c r="D120" s="15"/>
+      <c r="A120" s="14"/>
+      <c r="D120" s="14"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="15"/>
-      <c r="D121" s="15"/>
+      <c r="A121" s="14"/>
+      <c r="D121" s="14"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="15"/>
-      <c r="D122" s="15"/>
+      <c r="A122" s="14"/>
+      <c r="D122" s="14"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="15"/>
-      <c r="D123" s="15"/>
+      <c r="A123" s="14"/>
+      <c r="D123" s="14"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="15"/>
-      <c r="D124" s="15"/>
+      <c r="A124" s="14"/>
+      <c r="D124" s="14"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="15"/>
-      <c r="D125" s="15"/>
+      <c r="A125" s="14"/>
+      <c r="D125" s="14"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="15"/>
-      <c r="D126" s="15"/>
+      <c r="A126" s="14"/>
+      <c r="D126" s="14"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="15"/>
-      <c r="D127" s="15"/>
+      <c r="A127" s="14"/>
+      <c r="D127" s="14"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="15"/>
-      <c r="D128" s="15"/>
+      <c r="A128" s="14"/>
+      <c r="D128" s="14"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="15"/>
-      <c r="D129" s="15"/>
+      <c r="A129" s="14"/>
+      <c r="D129" s="14"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="15"/>
-      <c r="D130" s="15"/>
+      <c r="A130" s="14"/>
+      <c r="D130" s="14"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="15"/>
-      <c r="D131" s="15"/>
+      <c r="A131" s="14"/>
+      <c r="D131" s="14"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="15"/>
-      <c r="D132" s="15"/>
+      <c r="A132" s="14"/>
+      <c r="D132" s="14"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="15"/>
-      <c r="D133" s="15"/>
+      <c r="A133" s="14"/>
+      <c r="D133" s="14"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="15"/>
-      <c r="D134" s="15"/>
+      <c r="A134" s="14"/>
+      <c r="D134" s="14"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="15"/>
-      <c r="D135" s="15"/>
+      <c r="A135" s="14"/>
+      <c r="D135" s="14"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="15"/>
-      <c r="D136" s="15"/>
+      <c r="A136" s="14"/>
+      <c r="D136" s="14"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="15"/>
-      <c r="D137" s="15"/>
+      <c r="A137" s="14"/>
+      <c r="D137" s="14"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="15"/>
-      <c r="D138" s="15"/>
+      <c r="A138" s="14"/>
+      <c r="D138" s="14"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="15"/>
-      <c r="D139" s="15"/>
+      <c r="A139" s="14"/>
+      <c r="D139" s="14"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="15"/>
-      <c r="D140" s="15"/>
+      <c r="A140" s="14"/>
+      <c r="D140" s="14"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="15"/>
-      <c r="D141" s="15"/>
+      <c r="A141" s="14"/>
+      <c r="D141" s="14"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="15"/>
-      <c r="D142" s="15"/>
+      <c r="A142" s="14"/>
+      <c r="D142" s="14"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="15"/>
-      <c r="D143" s="15"/>
+      <c r="A143" s="14"/>
+      <c r="D143" s="14"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="15"/>
-      <c r="D144" s="15"/>
+      <c r="A144" s="14"/>
+      <c r="D144" s="14"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="15"/>
-      <c r="D145" s="15"/>
+      <c r="A145" s="14"/>
+      <c r="D145" s="14"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="15"/>
-      <c r="D146" s="15"/>
+      <c r="A146" s="14"/>
+      <c r="D146" s="14"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="15"/>
-      <c r="D147" s="15"/>
+      <c r="A147" s="14"/>
+      <c r="D147" s="14"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="15"/>
-      <c r="D148" s="15"/>
+      <c r="A148" s="14"/>
+      <c r="D148" s="14"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="15"/>
-      <c r="D149" s="15"/>
+      <c r="A149" s="14"/>
+      <c r="D149" s="14"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="15"/>
-      <c r="D150" s="15"/>
+      <c r="A150" s="14"/>
+      <c r="D150" s="14"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="15"/>
-      <c r="D151" s="15"/>
+      <c r="A151" s="14"/>
+      <c r="D151" s="14"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="15"/>
-      <c r="D152" s="15"/>
+      <c r="A152" s="14"/>
+      <c r="D152" s="14"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="15"/>
-      <c r="D153" s="15"/>
+      <c r="A153" s="14"/>
+      <c r="D153" s="14"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="15"/>
-      <c r="D154" s="15"/>
+      <c r="A154" s="14"/>
+      <c r="D154" s="14"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="15"/>
-      <c r="D155" s="15"/>
+      <c r="A155" s="14"/>
+      <c r="D155" s="14"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="15"/>
-      <c r="D156" s="15"/>
+      <c r="A156" s="14"/>
+      <c r="D156" s="14"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="15"/>
-      <c r="D157" s="15"/>
+      <c r="A157" s="14"/>
+      <c r="D157" s="14"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="15"/>
-      <c r="D158" s="15"/>
+      <c r="A158" s="14"/>
+      <c r="D158" s="14"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="15"/>
-      <c r="D159" s="15"/>
+      <c r="A159" s="14"/>
+      <c r="D159" s="14"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="15"/>
-      <c r="D160" s="15"/>
+      <c r="A160" s="14"/>
+      <c r="D160" s="14"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="15"/>
-      <c r="D161" s="15"/>
+      <c r="A161" s="14"/>
+      <c r="D161" s="14"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="15"/>
-      <c r="D162" s="15"/>
+      <c r="A162" s="14"/>
+      <c r="D162" s="14"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="15"/>
-      <c r="D163" s="15"/>
+      <c r="A163" s="14"/>
+      <c r="D163" s="14"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
-      <c r="D164" s="15"/>
+      <c r="A164" s="14"/>
+      <c r="D164" s="14"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="15"/>
-      <c r="D165" s="15"/>
+      <c r="A165" s="14"/>
+      <c r="D165" s="14"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="15"/>
-      <c r="D166" s="15"/>
+      <c r="A166" s="14"/>
+      <c r="D166" s="14"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="15"/>
-      <c r="D167" s="15"/>
+      <c r="A167" s="14"/>
+      <c r="D167" s="14"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
-      <c r="D168" s="15"/>
+      <c r="A168" s="14"/>
+      <c r="D168" s="14"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="15"/>
-      <c r="D169" s="15"/>
+      <c r="A169" s="14"/>
+      <c r="D169" s="14"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="15"/>
-      <c r="D170" s="15"/>
+      <c r="A170" s="14"/>
+      <c r="D170" s="14"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="15"/>
-      <c r="D171" s="15"/>
+      <c r="A171" s="14"/>
+      <c r="D171" s="14"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="15"/>
-      <c r="D172" s="15"/>
+      <c r="A172" s="14"/>
+      <c r="D172" s="14"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="15"/>
-      <c r="D173" s="15"/>
+      <c r="A173" s="14"/>
+      <c r="D173" s="14"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="15"/>
-      <c r="D174" s="15"/>
+      <c r="A174" s="14"/>
+      <c r="D174" s="14"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="15"/>
-      <c r="D175" s="15"/>
+      <c r="A175" s="14"/>
+      <c r="D175" s="14"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="15"/>
-      <c r="D176" s="15"/>
+      <c r="A176" s="14"/>
+      <c r="D176" s="14"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="15"/>
-      <c r="D177" s="15"/>
+      <c r="A177" s="14"/>
+      <c r="D177" s="14"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="15"/>
-      <c r="D178" s="15"/>
+      <c r="A178" s="14"/>
+      <c r="D178" s="14"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="15"/>
-      <c r="D179" s="15"/>
+      <c r="A179" s="14"/>
+      <c r="D179" s="14"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="15"/>
-      <c r="D180" s="15"/>
+      <c r="A180" s="14"/>
+      <c r="D180" s="14"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="15"/>
-      <c r="D181" s="15"/>
+      <c r="A181" s="14"/>
+      <c r="D181" s="14"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="15"/>
-      <c r="D182" s="15"/>
+      <c r="A182" s="14"/>
+      <c r="D182" s="14"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="15"/>
-      <c r="D183" s="15"/>
+      <c r="A183" s="14"/>
+      <c r="D183" s="14"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="15"/>
-      <c r="D184" s="15"/>
+      <c r="A184" s="14"/>
+      <c r="D184" s="14"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="15"/>
-      <c r="D185" s="15"/>
+      <c r="A185" s="14"/>
+      <c r="D185" s="14"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="15"/>
-      <c r="D186" s="15"/>
+      <c r="A186" s="14"/>
+      <c r="D186" s="14"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="15"/>
-      <c r="D187" s="15"/>
+      <c r="A187" s="14"/>
+      <c r="D187" s="14"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="15"/>
-      <c r="D188" s="15"/>
+      <c r="A188" s="14"/>
+      <c r="D188" s="14"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="15"/>
-      <c r="D189" s="15"/>
+      <c r="A189" s="14"/>
+      <c r="D189" s="14"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="15"/>
-      <c r="D190" s="15"/>
+      <c r="A190" s="14"/>
+      <c r="D190" s="14"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="15"/>
-      <c r="D191" s="15"/>
+      <c r="A191" s="14"/>
+      <c r="D191" s="14"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="15"/>
-      <c r="D192" s="15"/>
+      <c r="A192" s="14"/>
+      <c r="D192" s="14"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="15"/>
-      <c r="D193" s="15"/>
+      <c r="A193" s="14"/>
+      <c r="D193" s="14"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="15"/>
-      <c r="D194" s="15"/>
+      <c r="A194" s="14"/>
+      <c r="D194" s="14"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="15"/>
-      <c r="D195" s="15"/>
+      <c r="A195" s="14"/>
+      <c r="D195" s="14"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="15"/>
-      <c r="D196" s="15"/>
+      <c r="A196" s="14"/>
+      <c r="D196" s="14"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="15"/>
-      <c r="D197" s="15"/>
+      <c r="A197" s="14"/>
+      <c r="D197" s="14"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="15"/>
-      <c r="D198" s="15"/>
+      <c r="A198" s="14"/>
+      <c r="D198" s="14"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="15"/>
-      <c r="D199" s="15"/>
+      <c r="A199" s="14"/>
+      <c r="D199" s="14"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="15"/>
-      <c r="D200" s="15"/>
+      <c r="A200" s="14"/>
+      <c r="D200" s="14"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="15"/>
-      <c r="D201" s="15"/>
+      <c r="A201" s="14"/>
+      <c r="D201" s="14"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="15"/>
-      <c r="D202" s="15"/>
+      <c r="A202" s="14"/>
+      <c r="D202" s="14"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="15"/>
-      <c r="D203" s="15"/>
+      <c r="A203" s="14"/>
+      <c r="D203" s="14"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="15"/>
-      <c r="D204" s="15"/>
+      <c r="A204" s="14"/>
+      <c r="D204" s="14"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="15"/>
-      <c r="D205" s="15"/>
+      <c r="A205" s="14"/>
+      <c r="D205" s="14"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="15"/>
-      <c r="D206" s="15"/>
+      <c r="A206" s="14"/>
+      <c r="D206" s="14"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="15"/>
-      <c r="D207" s="15"/>
+      <c r="A207" s="14"/>
+      <c r="D207" s="14"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="15"/>
-      <c r="D208" s="15"/>
+      <c r="A208" s="14"/>
+      <c r="D208" s="14"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="15"/>
-      <c r="D209" s="15"/>
+      <c r="A209" s="14"/>
+      <c r="D209" s="14"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="15"/>
-      <c r="D210" s="15"/>
+      <c r="A210" s="14"/>
+      <c r="D210" s="14"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="15"/>
-      <c r="D211" s="15"/>
+      <c r="A211" s="14"/>
+      <c r="D211" s="14"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="15"/>
-      <c r="D212" s="15"/>
+      <c r="A212" s="14"/>
+      <c r="D212" s="14"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="15"/>
-      <c r="D213" s="15"/>
+      <c r="A213" s="14"/>
+      <c r="D213" s="14"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="15"/>
-      <c r="D214" s="15"/>
+      <c r="A214" s="14"/>
+      <c r="D214" s="14"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="15"/>
-      <c r="D215" s="15"/>
+      <c r="A215" s="14"/>
+      <c r="D215" s="14"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="15"/>
-      <c r="D216" s="15"/>
+      <c r="A216" s="14"/>
+      <c r="D216" s="14"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="15"/>
-      <c r="D217" s="15"/>
+      <c r="A217" s="14"/>
+      <c r="D217" s="14"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="15"/>
-      <c r="D218" s="15"/>
+      <c r="A218" s="14"/>
+      <c r="D218" s="14"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="15"/>
-      <c r="D219" s="15"/>
+      <c r="A219" s="14"/>
+      <c r="D219" s="14"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="15"/>
-      <c r="D220" s="15"/>
+      <c r="A220" s="14"/>
+      <c r="D220" s="14"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="15"/>
-      <c r="D221" s="15"/>
+      <c r="A221" s="14"/>
+      <c r="D221" s="14"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="15"/>
-      <c r="D222" s="15"/>
+      <c r="A222" s="14"/>
+      <c r="D222" s="14"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="15"/>
-      <c r="D223" s="15"/>
+      <c r="A223" s="14"/>
+      <c r="D223" s="14"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="15"/>
-      <c r="D224" s="15"/>
+      <c r="A224" s="14"/>
+      <c r="D224" s="14"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="15"/>
-      <c r="D225" s="15"/>
+      <c r="A225" s="14"/>
+      <c r="D225" s="14"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="15"/>
-      <c r="D226" s="15"/>
+      <c r="A226" s="14"/>
+      <c r="D226" s="14"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="15"/>
-      <c r="D227" s="15"/>
+      <c r="A227" s="14"/>
+      <c r="D227" s="14"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="15"/>
-      <c r="D228" s="15"/>
+      <c r="A228" s="14"/>
+      <c r="D228" s="14"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="15"/>
-      <c r="D229" s="15"/>
+      <c r="A229" s="14"/>
+      <c r="D229" s="14"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="15"/>
-      <c r="D230" s="15"/>
+      <c r="A230" s="14"/>
+      <c r="D230" s="14"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="15"/>
-      <c r="D231" s="15"/>
+      <c r="A231" s="14"/>
+      <c r="D231" s="14"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="15"/>
-      <c r="D232" s="15"/>
+      <c r="A232" s="14"/>
+      <c r="D232" s="14"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="15"/>
-      <c r="D233" s="15"/>
+      <c r="A233" s="14"/>
+      <c r="D233" s="14"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="15"/>
-      <c r="D234" s="15"/>
+      <c r="A234" s="14"/>
+      <c r="D234" s="14"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="15"/>
-      <c r="D235" s="15"/>
+      <c r="A235" s="14"/>
+      <c r="D235" s="14"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="15"/>
-      <c r="D236" s="15"/>
+      <c r="A236" s="14"/>
+      <c r="D236" s="14"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="15"/>
-      <c r="D237" s="15"/>
+      <c r="A237" s="14"/>
+      <c r="D237" s="14"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="15"/>
-      <c r="D238" s="15"/>
+      <c r="A238" s="14"/>
+      <c r="D238" s="14"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="15"/>
-      <c r="D239" s="15"/>
+      <c r="A239" s="14"/>
+      <c r="D239" s="14"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="15"/>
-      <c r="D240" s="15"/>
+      <c r="A240" s="14"/>
+      <c r="D240" s="14"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="15"/>
-      <c r="D241" s="15"/>
+      <c r="A241" s="14"/>
+      <c r="D241" s="14"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="15"/>
-      <c r="D242" s="15"/>
+      <c r="A242" s="14"/>
+      <c r="D242" s="14"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="15"/>
-      <c r="D243" s="15"/>
+      <c r="A243" s="14"/>
+      <c r="D243" s="14"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="15"/>
-      <c r="D244" s="15"/>
+      <c r="A244" s="14"/>
+      <c r="D244" s="14"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="15"/>
-      <c r="D245" s="15"/>
+      <c r="A245" s="14"/>
+      <c r="D245" s="14"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="15"/>
-      <c r="D246" s="15"/>
+      <c r="A246" s="14"/>
+      <c r="D246" s="14"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="15"/>
-      <c r="D247" s="15"/>
+      <c r="A247" s="14"/>
+      <c r="D247" s="14"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="15"/>
-      <c r="D248" s="15"/>
+      <c r="A248" s="14"/>
+      <c r="D248" s="14"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="15"/>
-      <c r="D249" s="15"/>
+      <c r="A249" s="14"/>
+      <c r="D249" s="14"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="15"/>
-      <c r="D250" s="15"/>
+      <c r="A250" s="14"/>
+      <c r="D250" s="14"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="15"/>
-      <c r="D251" s="15"/>
+      <c r="A251" s="14"/>
+      <c r="D251" s="14"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="15"/>
-      <c r="D252" s="15"/>
+      <c r="A252" s="14"/>
+      <c r="D252" s="14"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="15"/>
-      <c r="D253" s="15"/>
+      <c r="A253" s="14"/>
+      <c r="D253" s="14"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="15"/>
-      <c r="D254" s="15"/>
+      <c r="A254" s="14"/>
+      <c r="D254" s="14"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="15"/>
-      <c r="D255" s="15"/>
+      <c r="A255" s="14"/>
+      <c r="D255" s="14"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="15"/>
-      <c r="D256" s="15"/>
+      <c r="A256" s="14"/>
+      <c r="D256" s="14"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="15"/>
-      <c r="D257" s="15"/>
+      <c r="A257" s="14"/>
+      <c r="D257" s="14"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="15"/>
-      <c r="D258" s="15"/>
+      <c r="A258" s="14"/>
+      <c r="D258" s="14"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="15"/>
-      <c r="D259" s="15"/>
+      <c r="A259" s="14"/>
+      <c r="D259" s="14"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="15"/>
-      <c r="D260" s="15"/>
+      <c r="A260" s="14"/>
+      <c r="D260" s="14"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="15"/>
-      <c r="D261" s="15"/>
+      <c r="A261" s="14"/>
+      <c r="D261" s="14"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="15"/>
-      <c r="D262" s="15"/>
+      <c r="A262" s="14"/>
+      <c r="D262" s="14"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="15"/>
-      <c r="D263" s="15"/>
+      <c r="A263" s="14"/>
+      <c r="D263" s="14"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" s="15"/>
-      <c r="D264" s="15"/>
+      <c r="A264" s="14"/>
+      <c r="D264" s="14"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" s="15"/>
-      <c r="D265" s="15"/>
+      <c r="A265" s="14"/>
+      <c r="D265" s="14"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="15"/>
-      <c r="D266" s="15"/>
+      <c r="A266" s="14"/>
+      <c r="D266" s="14"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="15"/>
-      <c r="D267" s="15"/>
+      <c r="A267" s="14"/>
+      <c r="D267" s="14"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" s="15"/>
-      <c r="D268" s="15"/>
+      <c r="A268" s="14"/>
+      <c r="D268" s="14"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="15"/>
-      <c r="D269" s="15"/>
+      <c r="A269" s="14"/>
+      <c r="D269" s="14"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="15"/>
-      <c r="D270" s="15"/>
+      <c r="A270" s="14"/>
+      <c r="D270" s="14"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="15"/>
-      <c r="D271" s="15"/>
+      <c r="A271" s="14"/>
+      <c r="D271" s="14"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="15"/>
-      <c r="D272" s="15"/>
+      <c r="A272" s="14"/>
+      <c r="D272" s="14"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" s="15"/>
-      <c r="D273" s="15"/>
+      <c r="A273" s="14"/>
+      <c r="D273" s="14"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" s="15"/>
-      <c r="D274" s="15"/>
+      <c r="A274" s="14"/>
+      <c r="D274" s="14"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="15"/>
-      <c r="D275" s="15"/>
+      <c r="A275" s="14"/>
+      <c r="D275" s="14"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" s="15"/>
-      <c r="D276" s="15"/>
+      <c r="A276" s="14"/>
+      <c r="D276" s="14"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="15"/>
-      <c r="D277" s="15"/>
+      <c r="A277" s="14"/>
+      <c r="D277" s="14"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="15"/>
-      <c r="D278" s="15"/>
+      <c r="A278" s="14"/>
+      <c r="D278" s="14"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="15"/>
-      <c r="D279" s="15"/>
+      <c r="A279" s="14"/>
+      <c r="D279" s="14"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="15"/>
-      <c r="D280" s="15"/>
+      <c r="A280" s="14"/>
+      <c r="D280" s="14"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="15"/>
-      <c r="D281" s="15"/>
+      <c r="A281" s="14"/>
+      <c r="D281" s="14"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="15"/>
-      <c r="D282" s="15"/>
+      <c r="A282" s="14"/>
+      <c r="D282" s="14"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="15"/>
-      <c r="D283" s="15"/>
+      <c r="A283" s="14"/>
+      <c r="D283" s="14"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="15"/>
-      <c r="D284" s="15"/>
+      <c r="A284" s="14"/>
+      <c r="D284" s="14"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" s="15"/>
-      <c r="D285" s="15"/>
+      <c r="A285" s="14"/>
+      <c r="D285" s="14"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" s="15"/>
-      <c r="D286" s="15"/>
+      <c r="A286" s="14"/>
+      <c r="D286" s="14"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="15"/>
-      <c r="D287" s="15"/>
+      <c r="A287" s="14"/>
+      <c r="D287" s="14"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" s="15"/>
-      <c r="D288" s="15"/>
+      <c r="A288" s="14"/>
+      <c r="D288" s="14"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="15"/>
-      <c r="D289" s="15"/>
+      <c r="A289" s="14"/>
+      <c r="D289" s="14"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="15"/>
-      <c r="D290" s="15"/>
+      <c r="A290" s="14"/>
+      <c r="D290" s="14"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="15"/>
-      <c r="D291" s="15"/>
+      <c r="A291" s="14"/>
+      <c r="D291" s="14"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" s="15"/>
-      <c r="D292" s="15"/>
+      <c r="A292" s="14"/>
+      <c r="D292" s="14"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="15"/>
-      <c r="D293" s="15"/>
+      <c r="A293" s="14"/>
+      <c r="D293" s="14"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="15"/>
-      <c r="D294" s="15"/>
+      <c r="A294" s="14"/>
+      <c r="D294" s="14"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="15"/>
-      <c r="D295" s="15"/>
+      <c r="A295" s="14"/>
+      <c r="D295" s="14"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="15"/>
-      <c r="D296" s="15"/>
+      <c r="A296" s="14"/>
+      <c r="D296" s="14"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" s="15"/>
-      <c r="D297" s="15"/>
+      <c r="A297" s="14"/>
+      <c r="D297" s="14"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" s="15"/>
-      <c r="D298" s="15"/>
+      <c r="A298" s="14"/>
+      <c r="D298" s="14"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="15"/>
-      <c r="D299" s="15"/>
+      <c r="A299" s="14"/>
+      <c r="D299" s="14"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="15"/>
-      <c r="D300" s="15"/>
+      <c r="A300" s="14"/>
+      <c r="D300" s="14"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" s="15"/>
-      <c r="D301" s="15"/>
+      <c r="A301" s="14"/>
+      <c r="D301" s="14"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" s="15"/>
-      <c r="D302" s="15"/>
+      <c r="A302" s="14"/>
+      <c r="D302" s="14"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" s="15"/>
-      <c r="D303" s="15"/>
+      <c r="A303" s="14"/>
+      <c r="D303" s="14"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="15"/>
-      <c r="D304" s="15"/>
+      <c r="A304" s="14"/>
+      <c r="D304" s="14"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="15"/>
-      <c r="D305" s="15"/>
+      <c r="A305" s="14"/>
+      <c r="D305" s="14"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" s="15"/>
-      <c r="D306" s="15"/>
+      <c r="A306" s="14"/>
+      <c r="D306" s="14"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" s="15"/>
-      <c r="D307" s="15"/>
+      <c r="A307" s="14"/>
+      <c r="D307" s="14"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" s="15"/>
-      <c r="D308" s="15"/>
+      <c r="A308" s="14"/>
+      <c r="D308" s="14"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" s="15"/>
-      <c r="D309" s="15"/>
+      <c r="A309" s="14"/>
+      <c r="D309" s="14"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="15"/>
-      <c r="D310" s="15"/>
+      <c r="A310" s="14"/>
+      <c r="D310" s="14"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" s="15"/>
-      <c r="D311" s="15"/>
+      <c r="A311" s="14"/>
+      <c r="D311" s="14"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="15"/>
-      <c r="D312" s="15"/>
+      <c r="A312" s="14"/>
+      <c r="D312" s="14"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" s="15"/>
-      <c r="D313" s="15"/>
+      <c r="A313" s="14"/>
+      <c r="D313" s="14"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" s="15"/>
-      <c r="D314" s="15"/>
+      <c r="A314" s="14"/>
+      <c r="D314" s="14"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" s="15"/>
-      <c r="D315" s="15"/>
+      <c r="A315" s="14"/>
+      <c r="D315" s="14"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" s="15"/>
-      <c r="D316" s="15"/>
+      <c r="A316" s="14"/>
+      <c r="D316" s="14"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" s="15"/>
-      <c r="D317" s="15"/>
+      <c r="A317" s="14"/>
+      <c r="D317" s="14"/>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" s="15"/>
-      <c r="D318" s="15"/>
+      <c r="A318" s="14"/>
+      <c r="D318" s="14"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" s="15"/>
-      <c r="D319" s="15"/>
+      <c r="A319" s="14"/>
+      <c r="D319" s="14"/>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" s="15"/>
-      <c r="D320" s="15"/>
+      <c r="A320" s="14"/>
+      <c r="D320" s="14"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" s="15"/>
-      <c r="D321" s="15"/>
+      <c r="A321" s="14"/>
+      <c r="D321" s="14"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" s="15"/>
-      <c r="D322" s="15"/>
+      <c r="A322" s="14"/>
+      <c r="D322" s="14"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" s="15"/>
-      <c r="D323" s="15"/>
+      <c r="A323" s="14"/>
+      <c r="D323" s="14"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="15"/>
-      <c r="D324" s="15"/>
+      <c r="A324" s="14"/>
+      <c r="D324" s="14"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="15"/>
-      <c r="D325" s="15"/>
+      <c r="A325" s="14"/>
+      <c r="D325" s="14"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" s="15"/>
-      <c r="D326" s="15"/>
+      <c r="A326" s="14"/>
+      <c r="D326" s="14"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="15"/>
-      <c r="D327" s="15"/>
+      <c r="A327" s="14"/>
+      <c r="D327" s="14"/>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="15"/>
-      <c r="D328" s="15"/>
+      <c r="A328" s="14"/>
+      <c r="D328" s="14"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="15"/>
-      <c r="D329" s="15"/>
+      <c r="A329" s="14"/>
+      <c r="D329" s="14"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="15"/>
-      <c r="D330" s="15"/>
+      <c r="A330" s="14"/>
+      <c r="D330" s="14"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" s="15"/>
-      <c r="D331" s="15"/>
+      <c r="A331" s="14"/>
+      <c r="D331" s="14"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" s="15"/>
-      <c r="D332" s="15"/>
+      <c r="A332" s="14"/>
+      <c r="D332" s="14"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" s="15"/>
-      <c r="D333" s="15"/>
+      <c r="A333" s="14"/>
+      <c r="D333" s="14"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334" s="15"/>
-      <c r="D334" s="15"/>
+      <c r="A334" s="14"/>
+      <c r="D334" s="14"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335" s="15"/>
-      <c r="D335" s="15"/>
+      <c r="A335" s="14"/>
+      <c r="D335" s="14"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336" s="15"/>
-      <c r="D336" s="15"/>
+      <c r="A336" s="14"/>
+      <c r="D336" s="14"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="15"/>
-      <c r="D337" s="15"/>
+      <c r="A337" s="14"/>
+      <c r="D337" s="14"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="15"/>
-      <c r="D338" s="15"/>
+      <c r="A338" s="14"/>
+      <c r="D338" s="14"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="15"/>
-      <c r="D339" s="15"/>
+      <c r="A339" s="14"/>
+      <c r="D339" s="14"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="15"/>
-      <c r="D340" s="15"/>
+      <c r="A340" s="14"/>
+      <c r="D340" s="14"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="15"/>
-      <c r="D341" s="15"/>
+      <c r="A341" s="14"/>
+      <c r="D341" s="14"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="15"/>
-      <c r="D342" s="15"/>
+      <c r="A342" s="14"/>
+      <c r="D342" s="14"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="15"/>
-      <c r="D343" s="15"/>
+      <c r="A343" s="14"/>
+      <c r="D343" s="14"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="15"/>
-      <c r="D344" s="15"/>
+      <c r="A344" s="14"/>
+      <c r="D344" s="14"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="15"/>
-      <c r="D345" s="15"/>
+      <c r="A345" s="14"/>
+      <c r="D345" s="14"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="15"/>
-      <c r="D346" s="15"/>
+      <c r="A346" s="14"/>
+      <c r="D346" s="14"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="15"/>
-      <c r="D347" s="15"/>
+      <c r="A347" s="14"/>
+      <c r="D347" s="14"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="15"/>
-      <c r="D348" s="15"/>
+      <c r="A348" s="14"/>
+      <c r="D348" s="14"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="15"/>
-      <c r="D349" s="15"/>
+      <c r="A349" s="14"/>
+      <c r="D349" s="14"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="15"/>
-      <c r="D350" s="15"/>
+      <c r="A350" s="14"/>
+      <c r="D350" s="14"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="15"/>
-      <c r="D351" s="15"/>
+      <c r="A351" s="14"/>
+      <c r="D351" s="14"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="15"/>
-      <c r="D352" s="15"/>
+      <c r="A352" s="14"/>
+      <c r="D352" s="14"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="15"/>
-      <c r="D353" s="15"/>
+      <c r="A353" s="14"/>
+      <c r="D353" s="14"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="15"/>
-      <c r="D354" s="15"/>
+      <c r="A354" s="14"/>
+      <c r="D354" s="14"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" s="15"/>
-      <c r="D355" s="15"/>
+      <c r="A355" s="14"/>
+      <c r="D355" s="14"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" s="15"/>
-      <c r="D356" s="15"/>
+      <c r="A356" s="14"/>
+      <c r="D356" s="14"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357" s="15"/>
-      <c r="D357" s="15"/>
+      <c r="A357" s="14"/>
+      <c r="D357" s="14"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358" s="15"/>
-      <c r="D358" s="15"/>
+      <c r="A358" s="14"/>
+      <c r="D358" s="14"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359" s="15"/>
-      <c r="D359" s="15"/>
+      <c r="A359" s="14"/>
+      <c r="D359" s="14"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360" s="15"/>
-      <c r="D360" s="15"/>
+      <c r="A360" s="14"/>
+      <c r="D360" s="14"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361" s="15"/>
-      <c r="D361" s="15"/>
+      <c r="A361" s="14"/>
+      <c r="D361" s="14"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" s="15"/>
-      <c r="D362" s="15"/>
+      <c r="A362" s="14"/>
+      <c r="D362" s="14"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A363" s="15"/>
-      <c r="D363" s="15"/>
+      <c r="A363" s="14"/>
+      <c r="D363" s="14"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364" s="15"/>
-      <c r="D364" s="15"/>
+      <c r="A364" s="14"/>
+      <c r="D364" s="14"/>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" s="15"/>
-      <c r="D365" s="15"/>
+      <c r="A365" s="14"/>
+      <c r="D365" s="14"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" s="15"/>
-      <c r="D366" s="15"/>
+      <c r="A366" s="14"/>
+      <c r="D366" s="14"/>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367" s="15"/>
-      <c r="D367" s="15"/>
+      <c r="A367" s="14"/>
+      <c r="D367" s="14"/>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368" s="15"/>
-      <c r="D368" s="15"/>
+      <c r="A368" s="14"/>
+      <c r="D368" s="14"/>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369" s="15"/>
-      <c r="D369" s="15"/>
+      <c r="A369" s="14"/>
+      <c r="D369" s="14"/>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" s="15"/>
-      <c r="D370" s="15"/>
+      <c r="A370" s="14"/>
+      <c r="D370" s="14"/>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371" s="15"/>
-      <c r="D371" s="15"/>
+      <c r="A371" s="14"/>
+      <c r="D371" s="14"/>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372" s="15"/>
-      <c r="D372" s="15"/>
+      <c r="A372" s="14"/>
+      <c r="D372" s="14"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" s="15"/>
-      <c r="D373" s="15"/>
+      <c r="A373" s="14"/>
+      <c r="D373" s="14"/>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" s="15"/>
-      <c r="D374" s="15"/>
+      <c r="A374" s="14"/>
+      <c r="D374" s="14"/>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" s="15"/>
-      <c r="D375" s="15"/>
+      <c r="A375" s="14"/>
+      <c r="D375" s="14"/>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376" s="15"/>
-      <c r="D376" s="15"/>
+      <c r="A376" s="14"/>
+      <c r="D376" s="14"/>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377" s="15"/>
-      <c r="D377" s="15"/>
+      <c r="A377" s="14"/>
+      <c r="D377" s="14"/>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378" s="15"/>
-      <c r="D378" s="15"/>
+      <c r="A378" s="14"/>
+      <c r="D378" s="14"/>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" s="15"/>
-      <c r="D379" s="15"/>
+      <c r="A379" s="14"/>
+      <c r="D379" s="14"/>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" s="15"/>
-      <c r="D380" s="15"/>
+      <c r="A380" s="14"/>
+      <c r="D380" s="14"/>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381" s="15"/>
-      <c r="D381" s="15"/>
+      <c r="A381" s="14"/>
+      <c r="D381" s="14"/>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" s="15"/>
-      <c r="D382" s="15"/>
+      <c r="A382" s="14"/>
+      <c r="D382" s="14"/>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383" s="15"/>
-      <c r="D383" s="15"/>
+      <c r="A383" s="14"/>
+      <c r="D383" s="14"/>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" s="15"/>
-      <c r="D384" s="15"/>
+      <c r="A384" s="14"/>
+      <c r="D384" s="14"/>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="15"/>
-      <c r="D385" s="15"/>
+      <c r="A385" s="14"/>
+      <c r="D385" s="14"/>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="15"/>
-      <c r="D386" s="15"/>
+      <c r="A386" s="14"/>
+      <c r="D386" s="14"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="15"/>
-      <c r="D387" s="15"/>
+      <c r="A387" s="14"/>
+      <c r="D387" s="14"/>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" s="15"/>
-      <c r="D388" s="15"/>
+      <c r="A388" s="14"/>
+      <c r="D388" s="14"/>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="15"/>
-      <c r="D389" s="15"/>
+      <c r="A389" s="14"/>
+      <c r="D389" s="14"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="15"/>
-      <c r="D390" s="15"/>
+      <c r="A390" s="14"/>
+      <c r="D390" s="14"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="15"/>
-      <c r="D391" s="15"/>
+      <c r="A391" s="14"/>
+      <c r="D391" s="14"/>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" s="15"/>
-      <c r="D392" s="15"/>
+      <c r="A392" s="14"/>
+      <c r="D392" s="14"/>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" s="15"/>
-      <c r="D393" s="15"/>
+      <c r="A393" s="14"/>
+      <c r="D393" s="14"/>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" s="15"/>
-      <c r="D394" s="15"/>
+      <c r="A394" s="14"/>
+      <c r="D394" s="14"/>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="15"/>
-      <c r="D395" s="15"/>
+      <c r="A395" s="14"/>
+      <c r="D395" s="14"/>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="15"/>
-      <c r="D396" s="15"/>
+      <c r="A396" s="14"/>
+      <c r="D396" s="14"/>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="15"/>
-      <c r="D397" s="15"/>
+      <c r="A397" s="14"/>
+      <c r="D397" s="14"/>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="15"/>
-      <c r="D398" s="15"/>
+      <c r="A398" s="14"/>
+      <c r="D398" s="14"/>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="15"/>
-      <c r="D399" s="15"/>
+      <c r="A399" s="14"/>
+      <c r="D399" s="14"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="15"/>
-      <c r="D400" s="15"/>
+      <c r="A400" s="14"/>
+      <c r="D400" s="14"/>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401" s="15"/>
-      <c r="D401" s="15"/>
+      <c r="A401" s="14"/>
+      <c r="D401" s="14"/>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402" s="15"/>
-      <c r="D402" s="15"/>
+      <c r="A402" s="14"/>
+      <c r="D402" s="14"/>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" s="15"/>
-      <c r="D403" s="15"/>
+      <c r="A403" s="14"/>
+      <c r="D403" s="14"/>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" s="15"/>
-      <c r="D404" s="15"/>
+      <c r="A404" s="14"/>
+      <c r="D404" s="14"/>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405" s="15"/>
-      <c r="D405" s="15"/>
+      <c r="A405" s="14"/>
+      <c r="D405" s="14"/>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" s="15"/>
-      <c r="D406" s="15"/>
+      <c r="A406" s="14"/>
+      <c r="D406" s="14"/>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" s="15"/>
-      <c r="D407" s="15"/>
+      <c r="A407" s="14"/>
+      <c r="D407" s="14"/>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408" s="15"/>
-      <c r="D408" s="15"/>
+      <c r="A408" s="14"/>
+      <c r="D408" s="14"/>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" s="15"/>
-      <c r="D409" s="15"/>
+      <c r="A409" s="14"/>
+      <c r="D409" s="14"/>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410" s="15"/>
-      <c r="D410" s="15"/>
+      <c r="A410" s="14"/>
+      <c r="D410" s="14"/>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" s="15"/>
-      <c r="D411" s="15"/>
+      <c r="A411" s="14"/>
+      <c r="D411" s="14"/>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412" s="15"/>
-      <c r="D412" s="15"/>
+      <c r="A412" s="14"/>
+      <c r="D412" s="14"/>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413" s="15"/>
-      <c r="D413" s="15"/>
+      <c r="A413" s="14"/>
+      <c r="D413" s="14"/>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" s="15"/>
-      <c r="D414" s="15"/>
+      <c r="A414" s="14"/>
+      <c r="D414" s="14"/>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415" s="15"/>
-      <c r="D415" s="15"/>
+      <c r="A415" s="14"/>
+      <c r="D415" s="14"/>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416" s="15"/>
-      <c r="D416" s="15"/>
+      <c r="A416" s="14"/>
+      <c r="D416" s="14"/>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417" s="15"/>
-      <c r="D417" s="15"/>
+      <c r="A417" s="14"/>
+      <c r="D417" s="14"/>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" s="15"/>
-      <c r="D418" s="15"/>
+      <c r="A418" s="14"/>
+      <c r="D418" s="14"/>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" s="15"/>
-      <c r="D419" s="15"/>
+      <c r="A419" s="14"/>
+      <c r="D419" s="14"/>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" s="15"/>
-      <c r="D420" s="15"/>
+      <c r="A420" s="14"/>
+      <c r="D420" s="14"/>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421" s="15"/>
-      <c r="D421" s="15"/>
+      <c r="A421" s="14"/>
+      <c r="D421" s="14"/>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" s="15"/>
-      <c r="D422" s="15"/>
+      <c r="A422" s="14"/>
+      <c r="D422" s="14"/>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" s="15"/>
-      <c r="D423" s="15"/>
+      <c r="A423" s="14"/>
+      <c r="D423" s="14"/>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424" s="15"/>
-      <c r="D424" s="15"/>
+      <c r="A424" s="14"/>
+      <c r="D424" s="14"/>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425" s="15"/>
-      <c r="D425" s="15"/>
+      <c r="A425" s="14"/>
+      <c r="D425" s="14"/>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426" s="15"/>
-      <c r="D426" s="15"/>
+      <c r="A426" s="14"/>
+      <c r="D426" s="14"/>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427" s="15"/>
-      <c r="D427" s="15"/>
+      <c r="A427" s="14"/>
+      <c r="D427" s="14"/>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A428" s="15"/>
-      <c r="D428" s="15"/>
+      <c r="A428" s="14"/>
+      <c r="D428" s="14"/>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" s="15"/>
-      <c r="D429" s="15"/>
+      <c r="A429" s="14"/>
+      <c r="D429" s="14"/>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" s="15"/>
-      <c r="D430" s="15"/>
+      <c r="A430" s="14"/>
+      <c r="D430" s="14"/>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" s="15"/>
-      <c r="D431" s="15"/>
+      <c r="A431" s="14"/>
+      <c r="D431" s="14"/>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" s="15"/>
-      <c r="D432" s="15"/>
+      <c r="A432" s="14"/>
+      <c r="D432" s="14"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433" s="15"/>
-      <c r="D433" s="15"/>
+      <c r="A433" s="14"/>
+      <c r="D433" s="14"/>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434" s="15"/>
-      <c r="D434" s="15"/>
+      <c r="A434" s="14"/>
+      <c r="D434" s="14"/>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435" s="15"/>
-      <c r="D435" s="15"/>
+      <c r="A435" s="14"/>
+      <c r="D435" s="14"/>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436" s="15"/>
-      <c r="D436" s="15"/>
+      <c r="A436" s="14"/>
+      <c r="D436" s="14"/>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437" s="15"/>
-      <c r="D437" s="15"/>
+      <c r="A437" s="14"/>
+      <c r="D437" s="14"/>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438" s="15"/>
-      <c r="D438" s="15"/>
+      <c r="A438" s="14"/>
+      <c r="D438" s="14"/>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439" s="15"/>
-      <c r="D439" s="15"/>
+      <c r="A439" s="14"/>
+      <c r="D439" s="14"/>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440" s="15"/>
-      <c r="D440" s="15"/>
+      <c r="A440" s="14"/>
+      <c r="D440" s="14"/>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441" s="15"/>
-      <c r="D441" s="15"/>
+      <c r="A441" s="14"/>
+      <c r="D441" s="14"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" s="15"/>
-      <c r="D442" s="15"/>
+      <c r="A442" s="14"/>
+      <c r="D442" s="14"/>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" s="15"/>
-      <c r="D443" s="15"/>
+      <c r="A443" s="14"/>
+      <c r="D443" s="14"/>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A444" s="15"/>
-      <c r="D444" s="15"/>
+      <c r="A444" s="14"/>
+      <c r="D444" s="14"/>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445" s="15"/>
-      <c r="D445" s="15"/>
+      <c r="A445" s="14"/>
+      <c r="D445" s="14"/>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446" s="15"/>
-      <c r="D446" s="15"/>
+      <c r="A446" s="14"/>
+      <c r="D446" s="14"/>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" s="15"/>
-      <c r="D447" s="15"/>
+      <c r="A447" s="14"/>
+      <c r="D447" s="14"/>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448" s="15"/>
-      <c r="D448" s="15"/>
+      <c r="A448" s="14"/>
+      <c r="D448" s="14"/>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449" s="15"/>
-      <c r="D449" s="15"/>
+      <c r="A449" s="14"/>
+      <c r="D449" s="14"/>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A450" s="15"/>
-      <c r="D450" s="15"/>
+      <c r="A450" s="14"/>
+      <c r="D450" s="14"/>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A451" s="15"/>
-      <c r="D451" s="15"/>
+      <c r="A451" s="14"/>
+      <c r="D451" s="14"/>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A452" s="15"/>
-      <c r="D452" s="15"/>
+      <c r="A452" s="14"/>
+      <c r="D452" s="14"/>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A453" s="15"/>
-      <c r="D453" s="15"/>
+      <c r="A453" s="14"/>
+      <c r="D453" s="14"/>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A454" s="15"/>
-      <c r="D454" s="15"/>
+      <c r="A454" s="14"/>
+      <c r="D454" s="14"/>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A455" s="15"/>
-      <c r="D455" s="15"/>
+      <c r="A455" s="14"/>
+      <c r="D455" s="14"/>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A456" s="15"/>
-      <c r="D456" s="15"/>
+      <c r="A456" s="14"/>
+      <c r="D456" s="14"/>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A457" s="15"/>
-      <c r="D457" s="15"/>
+      <c r="A457" s="14"/>
+      <c r="D457" s="14"/>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A458" s="15"/>
-      <c r="D458" s="15"/>
+      <c r="A458" s="14"/>
+      <c r="D458" s="14"/>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A459" s="15"/>
-      <c r="D459" s="15"/>
+      <c r="A459" s="14"/>
+      <c r="D459" s="14"/>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A460" s="15"/>
-      <c r="D460" s="15"/>
+      <c r="A460" s="14"/>
+      <c r="D460" s="14"/>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A461" s="15"/>
-      <c r="D461" s="15"/>
+      <c r="A461" s="14"/>
+      <c r="D461" s="14"/>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A462" s="15"/>
-      <c r="D462" s="15"/>
+      <c r="A462" s="14"/>
+      <c r="D462" s="14"/>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A463" s="15"/>
-      <c r="D463" s="15"/>
+      <c r="A463" s="14"/>
+      <c r="D463" s="14"/>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A464" s="15"/>
-      <c r="D464" s="15"/>
+      <c r="A464" s="14"/>
+      <c r="D464" s="14"/>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465" s="15"/>
-      <c r="D465" s="15"/>
+      <c r="A465" s="14"/>
+      <c r="D465" s="14"/>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466" s="15"/>
-      <c r="D466" s="15"/>
+      <c r="A466" s="14"/>
+      <c r="D466" s="14"/>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A467" s="15"/>
-      <c r="D467" s="15"/>
+      <c r="A467" s="14"/>
+      <c r="D467" s="14"/>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A468" s="15"/>
-      <c r="D468" s="15"/>
+      <c r="A468" s="14"/>
+      <c r="D468" s="14"/>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A469" s="15"/>
-      <c r="D469" s="15"/>
+      <c r="A469" s="14"/>
+      <c r="D469" s="14"/>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A470" s="15"/>
-      <c r="D470" s="15"/>
+      <c r="A470" s="14"/>
+      <c r="D470" s="14"/>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A471" s="15"/>
-      <c r="D471" s="15"/>
+      <c r="A471" s="14"/>
+      <c r="D471" s="14"/>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A472" s="15"/>
-      <c r="D472" s="15"/>
+      <c r="A472" s="14"/>
+      <c r="D472" s="14"/>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A473" s="15"/>
-      <c r="D473" s="15"/>
+      <c r="A473" s="14"/>
+      <c r="D473" s="14"/>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A474" s="15"/>
-      <c r="D474" s="15"/>
+      <c r="A474" s="14"/>
+      <c r="D474" s="14"/>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A475" s="15"/>
-      <c r="D475" s="15"/>
+      <c r="A475" s="14"/>
+      <c r="D475" s="14"/>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A476" s="15"/>
-      <c r="D476" s="15"/>
+      <c r="A476" s="14"/>
+      <c r="D476" s="14"/>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A477" s="15"/>
-      <c r="D477" s="15"/>
+      <c r="A477" s="14"/>
+      <c r="D477" s="14"/>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A478" s="15"/>
-      <c r="D478" s="15"/>
+      <c r="A478" s="14"/>
+      <c r="D478" s="14"/>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A479" s="15"/>
-      <c r="D479" s="15"/>
+      <c r="A479" s="14"/>
+      <c r="D479" s="14"/>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A480" s="15"/>
-      <c r="D480" s="15"/>
+      <c r="A480" s="14"/>
+      <c r="D480" s="14"/>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A481" s="15"/>
-      <c r="D481" s="15"/>
+      <c r="A481" s="14"/>
+      <c r="D481" s="14"/>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A482" s="15"/>
-      <c r="D482" s="15"/>
+      <c r="A482" s="14"/>
+      <c r="D482" s="14"/>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A483" s="15"/>
-      <c r="D483" s="15"/>
+      <c r="A483" s="14"/>
+      <c r="D483" s="14"/>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A484" s="15"/>
-      <c r="D484" s="15"/>
+      <c r="A484" s="14"/>
+      <c r="D484" s="14"/>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A485" s="15"/>
-      <c r="D485" s="15"/>
+      <c r="A485" s="14"/>
+      <c r="D485" s="14"/>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A486" s="15"/>
-      <c r="D486" s="15"/>
+      <c r="A486" s="14"/>
+      <c r="D486" s="14"/>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A487" s="15"/>
-      <c r="D487" s="15"/>
+      <c r="A487" s="14"/>
+      <c r="D487" s="14"/>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A488" s="15"/>
-      <c r="D488" s="15"/>
+      <c r="A488" s="14"/>
+      <c r="D488" s="14"/>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A489" s="15"/>
-      <c r="D489" s="15"/>
+      <c r="A489" s="14"/>
+      <c r="D489" s="14"/>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A490" s="15"/>
-      <c r="D490" s="15"/>
+      <c r="A490" s="14"/>
+      <c r="D490" s="14"/>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A491" s="15"/>
-      <c r="D491" s="15"/>
+      <c r="A491" s="14"/>
+      <c r="D491" s="14"/>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A492" s="15"/>
-      <c r="D492" s="15"/>
+      <c r="A492" s="14"/>
+      <c r="D492" s="14"/>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A493" s="15"/>
-      <c r="D493" s="15"/>
+      <c r="A493" s="14"/>
+      <c r="D493" s="14"/>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A494" s="15"/>
-      <c r="D494" s="15"/>
+      <c r="A494" s="14"/>
+      <c r="D494" s="14"/>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A495" s="15"/>
-      <c r="D495" s="15"/>
+      <c r="A495" s="14"/>
+      <c r="D495" s="14"/>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A496" s="15"/>
-      <c r="D496" s="15"/>
+      <c r="A496" s="14"/>
+      <c r="D496" s="14"/>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A497" s="15"/>
-      <c r="D497" s="15"/>
+      <c r="A497" s="14"/>
+      <c r="D497" s="14"/>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A498" s="15"/>
-      <c r="D498" s="15"/>
+      <c r="A498" s="14"/>
+      <c r="D498" s="14"/>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A499" s="15"/>
-      <c r="D499" s="15"/>
+      <c r="A499" s="14"/>
+      <c r="D499" s="14"/>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A500" s="15"/>
-      <c r="D500" s="15"/>
+      <c r="A500" s="14"/>
+      <c r="D500" s="14"/>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A501" s="15"/>
-      <c r="D501" s="15"/>
+      <c r="A501" s="14"/>
+      <c r="D501" s="14"/>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A502" s="15"/>
-      <c r="D502" s="15"/>
+      <c r="A502" s="14"/>
+      <c r="D502" s="14"/>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A503" s="15"/>
-      <c r="D503" s="15"/>
+      <c r="A503" s="14"/>
+      <c r="D503" s="14"/>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A504" s="15"/>
-      <c r="D504" s="15"/>
+      <c r="A504" s="14"/>
+      <c r="D504" s="14"/>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A505" s="15"/>
-      <c r="D505" s="15"/>
+      <c r="A505" s="14"/>
+      <c r="D505" s="14"/>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A506" s="15"/>
-      <c r="D506" s="15"/>
+      <c r="A506" s="14"/>
+      <c r="D506" s="14"/>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A507" s="15"/>
-      <c r="D507" s="15"/>
+      <c r="A507" s="14"/>
+      <c r="D507" s="14"/>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A508" s="15"/>
-      <c r="D508" s="15"/>
+      <c r="A508" s="14"/>
+      <c r="D508" s="14"/>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A509" s="15"/>
-      <c r="D509" s="15"/>
+      <c r="A509" s="14"/>
+      <c r="D509" s="14"/>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A510" s="15"/>
-      <c r="D510" s="15"/>
+      <c r="A510" s="14"/>
+      <c r="D510" s="14"/>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A511" s="15"/>
-      <c r="D511" s="15"/>
+      <c r="A511" s="14"/>
+      <c r="D511" s="14"/>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A512" s="15"/>
-      <c r="D512" s="15"/>
+      <c r="A512" s="14"/>
+      <c r="D512" s="14"/>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A513" s="15"/>
-      <c r="D513" s="15"/>
+      <c r="A513" s="14"/>
+      <c r="D513" s="14"/>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A514" s="15"/>
-      <c r="D514" s="15"/>
+      <c r="A514" s="14"/>
+      <c r="D514" s="14"/>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A515" s="15"/>
-      <c r="D515" s="15"/>
+      <c r="A515" s="14"/>
+      <c r="D515" s="14"/>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A516" s="15"/>
-      <c r="D516" s="15"/>
+      <c r="A516" s="14"/>
+      <c r="D516" s="14"/>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A517" s="15"/>
-      <c r="D517" s="15"/>
+      <c r="A517" s="14"/>
+      <c r="D517" s="14"/>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A518" s="15"/>
-      <c r="D518" s="15"/>
+      <c r="A518" s="14"/>
+      <c r="D518" s="14"/>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A519" s="15"/>
-      <c r="D519" s="15"/>
+      <c r="A519" s="14"/>
+      <c r="D519" s="14"/>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A520" s="15"/>
-      <c r="D520" s="15"/>
+      <c r="A520" s="14"/>
+      <c r="D520" s="14"/>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A521" s="15"/>
-      <c r="D521" s="15"/>
+      <c r="A521" s="14"/>
+      <c r="D521" s="14"/>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A522" s="15"/>
-      <c r="D522" s="15"/>
+      <c r="A522" s="14"/>
+      <c r="D522" s="14"/>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A523" s="15"/>
-      <c r="D523" s="15"/>
+      <c r="A523" s="14"/>
+      <c r="D523" s="14"/>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A524" s="15"/>
-      <c r="D524" s="15"/>
+      <c r="A524" s="14"/>
+      <c r="D524" s="14"/>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A525" s="15"/>
-      <c r="D525" s="15"/>
+      <c r="A525" s="14"/>
+      <c r="D525" s="14"/>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A526" s="15"/>
-      <c r="D526" s="15"/>
+      <c r="A526" s="14"/>
+      <c r="D526" s="14"/>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A527" s="15"/>
-      <c r="D527" s="15"/>
+      <c r="A527" s="14"/>
+      <c r="D527" s="14"/>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A528" s="15"/>
-      <c r="D528" s="15"/>
+      <c r="A528" s="14"/>
+      <c r="D528" s="14"/>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A529" s="15"/>
-      <c r="D529" s="15"/>
+      <c r="A529" s="14"/>
+      <c r="D529" s="14"/>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A530" s="15"/>
-      <c r="D530" s="15"/>
+      <c r="A530" s="14"/>
+      <c r="D530" s="14"/>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A531" s="15"/>
-      <c r="D531" s="15"/>
+      <c r="A531" s="14"/>
+      <c r="D531" s="14"/>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A532" s="15"/>
-      <c r="D532" s="15"/>
+      <c r="A532" s="14"/>
+      <c r="D532" s="14"/>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A533" s="15"/>
-      <c r="D533" s="15"/>
+      <c r="A533" s="14"/>
+      <c r="D533" s="14"/>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A534" s="15"/>
-      <c r="D534" s="15"/>
+      <c r="A534" s="14"/>
+      <c r="D534" s="14"/>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A535" s="15"/>
-      <c r="D535" s="15"/>
+      <c r="A535" s="14"/>
+      <c r="D535" s="14"/>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A536" s="15"/>
-      <c r="D536" s="15"/>
+      <c r="A536" s="14"/>
+      <c r="D536" s="14"/>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A537" s="15"/>
-      <c r="D537" s="15"/>
+      <c r="A537" s="14"/>
+      <c r="D537" s="14"/>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A538" s="15"/>
-      <c r="D538" s="15"/>
+      <c r="A538" s="14"/>
+      <c r="D538" s="14"/>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A539" s="15"/>
-      <c r="D539" s="15"/>
+      <c r="A539" s="14"/>
+      <c r="D539" s="14"/>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A540" s="15"/>
-      <c r="D540" s="15"/>
+      <c r="A540" s="14"/>
+      <c r="D540" s="14"/>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A541" s="15"/>
-      <c r="D541" s="15"/>
+      <c r="A541" s="14"/>
+      <c r="D541" s="14"/>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A542" s="15"/>
-      <c r="D542" s="15"/>
+      <c r="A542" s="14"/>
+      <c r="D542" s="14"/>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A543" s="15"/>
-      <c r="D543" s="15"/>
+      <c r="A543" s="14"/>
+      <c r="D543" s="14"/>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A544" s="15"/>
-      <c r="D544" s="15"/>
+      <c r="A544" s="14"/>
+      <c r="D544" s="14"/>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A545" s="15"/>
-      <c r="D545" s="15"/>
+      <c r="A545" s="14"/>
+      <c r="D545" s="14"/>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A546" s="15"/>
-      <c r="D546" s="15"/>
+      <c r="A546" s="14"/>
+      <c r="D546" s="14"/>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A547" s="15"/>
-      <c r="D547" s="15"/>
+      <c r="A547" s="14"/>
+      <c r="D547" s="14"/>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A548" s="15"/>
-      <c r="D548" s="15"/>
+      <c r="A548" s="14"/>
+      <c r="D548" s="14"/>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A549" s="15"/>
-      <c r="D549" s="15"/>
+      <c r="A549" s="14"/>
+      <c r="D549" s="14"/>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A550" s="15"/>
-      <c r="D550" s="15"/>
+      <c r="A550" s="14"/>
+      <c r="D550" s="14"/>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A551" s="15"/>
-      <c r="D551" s="15"/>
+      <c r="A551" s="14"/>
+      <c r="D551" s="14"/>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A552" s="15"/>
-      <c r="D552" s="15"/>
+      <c r="A552" s="14"/>
+      <c r="D552" s="14"/>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A553" s="15"/>
-      <c r="D553" s="15"/>
+      <c r="A553" s="14"/>
+      <c r="D553" s="14"/>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A554" s="15"/>
-      <c r="D554" s="15"/>
+      <c r="A554" s="14"/>
+      <c r="D554" s="14"/>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A555" s="15"/>
-      <c r="D555" s="15"/>
+      <c r="A555" s="14"/>
+      <c r="D555" s="14"/>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A556" s="15"/>
-      <c r="D556" s="15"/>
+      <c r="A556" s="14"/>
+      <c r="D556" s="14"/>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A557" s="15"/>
-      <c r="D557" s="15"/>
+      <c r="A557" s="14"/>
+      <c r="D557" s="14"/>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A558" s="15"/>
-      <c r="D558" s="15"/>
+      <c r="A558" s="14"/>
+      <c r="D558" s="14"/>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A559" s="15"/>
-      <c r="D559" s="15"/>
+      <c r="A559" s="14"/>
+      <c r="D559" s="14"/>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A560" s="15"/>
-      <c r="D560" s="15"/>
+      <c r="A560" s="14"/>
+      <c r="D560" s="14"/>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A561" s="15"/>
-      <c r="D561" s="15"/>
+      <c r="A561" s="14"/>
+      <c r="D561" s="14"/>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A562" s="15"/>
-      <c r="D562" s="15"/>
+      <c r="A562" s="14"/>
+      <c r="D562" s="14"/>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A563" s="15"/>
-      <c r="D563" s="15"/>
+      <c r="A563" s="14"/>
+      <c r="D563" s="14"/>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A564" s="15"/>
-      <c r="D564" s="15"/>
+      <c r="A564" s="14"/>
+      <c r="D564" s="14"/>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A565" s="15"/>
-      <c r="D565" s="15"/>
+      <c r="A565" s="14"/>
+      <c r="D565" s="14"/>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A566" s="15"/>
-      <c r="D566" s="15"/>
+      <c r="A566" s="14"/>
+      <c r="D566" s="14"/>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A567" s="15"/>
-      <c r="D567" s="15"/>
+      <c r="A567" s="14"/>
+      <c r="D567" s="14"/>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A568" s="15"/>
-      <c r="D568" s="15"/>
+      <c r="A568" s="14"/>
+      <c r="D568" s="14"/>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A569" s="15"/>
-      <c r="D569" s="15"/>
+      <c r="A569" s="14"/>
+      <c r="D569" s="14"/>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A570" s="15"/>
-      <c r="D570" s="15"/>
+      <c r="A570" s="14"/>
+      <c r="D570" s="14"/>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A571" s="15"/>
-      <c r="D571" s="15"/>
+      <c r="A571" s="14"/>
+      <c r="D571" s="14"/>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A572" s="15"/>
-      <c r="D572" s="15"/>
+      <c r="A572" s="14"/>
+      <c r="D572" s="14"/>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A573" s="15"/>
-      <c r="D573" s="15"/>
+      <c r="A573" s="14"/>
+      <c r="D573" s="14"/>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A574" s="15"/>
-      <c r="D574" s="15"/>
+      <c r="A574" s="14"/>
+      <c r="D574" s="14"/>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A575" s="15"/>
-      <c r="D575" s="15"/>
+      <c r="A575" s="14"/>
+      <c r="D575" s="14"/>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A576" s="15"/>
-      <c r="D576" s="15"/>
+      <c r="A576" s="14"/>
+      <c r="D576" s="14"/>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A577" s="15"/>
-      <c r="D577" s="15"/>
+      <c r="A577" s="14"/>
+      <c r="D577" s="14"/>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A578" s="15"/>
-      <c r="D578" s="15"/>
+      <c r="A578" s="14"/>
+      <c r="D578" s="14"/>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A579" s="15"/>
-      <c r="D579" s="15"/>
+      <c r="A579" s="14"/>
+      <c r="D579" s="14"/>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A580" s="15"/>
-      <c r="D580" s="15"/>
+      <c r="A580" s="14"/>
+      <c r="D580" s="14"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A581" s="15"/>
-      <c r="D581" s="15"/>
+      <c r="A581" s="14"/>
+      <c r="D581" s="14"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A582" s="15"/>
-      <c r="D582" s="15"/>
+      <c r="A582" s="14"/>
+      <c r="D582" s="14"/>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A583" s="15"/>
-      <c r="D583" s="15"/>
+      <c r="A583" s="14"/>
+      <c r="D583" s="14"/>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A584" s="15"/>
-      <c r="D584" s="15"/>
+      <c r="A584" s="14"/>
+      <c r="D584" s="14"/>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A585" s="15"/>
-      <c r="D585" s="15"/>
+      <c r="A585" s="14"/>
+      <c r="D585" s="14"/>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A586" s="15"/>
-      <c r="D586" s="15"/>
+      <c r="A586" s="14"/>
+      <c r="D586" s="14"/>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A587" s="15"/>
-      <c r="D587" s="15"/>
+      <c r="A587" s="14"/>
+      <c r="D587" s="14"/>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A588" s="15"/>
-      <c r="D588" s="15"/>
+      <c r="A588" s="14"/>
+      <c r="D588" s="14"/>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A589" s="15"/>
-      <c r="D589" s="15"/>
+      <c r="A589" s="14"/>
+      <c r="D589" s="14"/>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A590" s="15"/>
-      <c r="D590" s="15"/>
+      <c r="A590" s="14"/>
+      <c r="D590" s="14"/>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A591" s="15"/>
-      <c r="D591" s="15"/>
+      <c r="A591" s="14"/>
+      <c r="D591" s="14"/>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A592" s="15"/>
-      <c r="D592" s="15"/>
+      <c r="A592" s="14"/>
+      <c r="D592" s="14"/>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A593" s="15"/>
-      <c r="D593" s="15"/>
+      <c r="A593" s="14"/>
+      <c r="D593" s="14"/>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A594" s="15"/>
-      <c r="D594" s="15"/>
+      <c r="A594" s="14"/>
+      <c r="D594" s="14"/>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A595" s="15"/>
-      <c r="D595" s="15"/>
+      <c r="A595" s="14"/>
+      <c r="D595" s="14"/>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A596" s="15"/>
-      <c r="D596" s="15"/>
+      <c r="A596" s="14"/>
+      <c r="D596" s="14"/>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A597" s="15"/>
-      <c r="D597" s="15"/>
+      <c r="A597" s="14"/>
+      <c r="D597" s="14"/>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A598" s="15"/>
-      <c r="D598" s="15"/>
+      <c r="A598" s="14"/>
+      <c r="D598" s="14"/>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A599" s="15"/>
-      <c r="D599" s="15"/>
+      <c r="A599" s="14"/>
+      <c r="D599" s="14"/>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A600" s="15"/>
-      <c r="D600" s="15"/>
+      <c r="A600" s="14"/>
+      <c r="D600" s="14"/>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A601" s="15"/>
-      <c r="D601" s="15"/>
+      <c r="A601" s="14"/>
+      <c r="D601" s="14"/>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A602" s="15"/>
-      <c r="D602" s="15"/>
+      <c r="A602" s="14"/>
+      <c r="D602" s="14"/>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A603" s="15"/>
-      <c r="D603" s="15"/>
+      <c r="A603" s="14"/>
+      <c r="D603" s="14"/>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A604" s="15"/>
-      <c r="D604" s="15"/>
+      <c r="A604" s="14"/>
+      <c r="D604" s="14"/>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A605" s="15"/>
-      <c r="D605" s="15"/>
+      <c r="A605" s="14"/>
+      <c r="D605" s="14"/>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A606" s="15"/>
-      <c r="D606" s="15"/>
+      <c r="A606" s="14"/>
+      <c r="D606" s="14"/>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A607" s="15"/>
-      <c r="D607" s="15"/>
+      <c r="A607" s="14"/>
+      <c r="D607" s="14"/>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A608" s="15"/>
-      <c r="D608" s="15"/>
+      <c r="A608" s="14"/>
+      <c r="D608" s="14"/>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A609" s="15"/>
-      <c r="D609" s="15"/>
+      <c r="A609" s="14"/>
+      <c r="D609" s="14"/>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A610" s="15"/>
-      <c r="D610" s="15"/>
+      <c r="A610" s="14"/>
+      <c r="D610" s="14"/>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A611" s="15"/>
-      <c r="D611" s="15"/>
+      <c r="A611" s="14"/>
+      <c r="D611" s="14"/>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A612" s="15"/>
-      <c r="D612" s="15"/>
+      <c r="A612" s="14"/>
+      <c r="D612" s="14"/>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A613" s="15"/>
-      <c r="D613" s="15"/>
+      <c r="A613" s="14"/>
+      <c r="D613" s="14"/>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A614" s="15"/>
-      <c r="D614" s="15"/>
+      <c r="A614" s="14"/>
+      <c r="D614" s="14"/>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A615" s="15"/>
-      <c r="D615" s="15"/>
+      <c r="A615" s="14"/>
+      <c r="D615" s="14"/>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A616" s="15"/>
-      <c r="D616" s="15"/>
+      <c r="A616" s="14"/>
+      <c r="D616" s="14"/>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A617" s="15"/>
-      <c r="D617" s="15"/>
+      <c r="A617" s="14"/>
+      <c r="D617" s="14"/>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A618" s="15"/>
-      <c r="D618" s="15"/>
+      <c r="A618" s="14"/>
+      <c r="D618" s="14"/>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A619" s="15"/>
-      <c r="D619" s="15"/>
+      <c r="A619" s="14"/>
+      <c r="D619" s="14"/>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A620" s="15"/>
-      <c r="D620" s="15"/>
+      <c r="A620" s="14"/>
+      <c r="D620" s="14"/>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A621" s="15"/>
-      <c r="D621" s="15"/>
+      <c r="A621" s="14"/>
+      <c r="D621" s="14"/>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A622" s="15"/>
-      <c r="D622" s="15"/>
+      <c r="A622" s="14"/>
+      <c r="D622" s="14"/>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A623" s="15"/>
-      <c r="D623" s="15"/>
+      <c r="A623" s="14"/>
+      <c r="D623" s="14"/>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A624" s="15"/>
-      <c r="D624" s="15"/>
+      <c r="A624" s="14"/>
+      <c r="D624" s="14"/>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A625" s="15"/>
-      <c r="D625" s="15"/>
+      <c r="A625" s="14"/>
+      <c r="D625" s="14"/>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A626" s="15"/>
-      <c r="D626" s="15"/>
+      <c r="A626" s="14"/>
+      <c r="D626" s="14"/>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A627" s="15"/>
-      <c r="D627" s="15"/>
+      <c r="A627" s="14"/>
+      <c r="D627" s="14"/>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A628" s="15"/>
-      <c r="D628" s="15"/>
+      <c r="A628" s="14"/>
+      <c r="D628" s="14"/>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A629" s="15"/>
-      <c r="D629" s="15"/>
+      <c r="A629" s="14"/>
+      <c r="D629" s="14"/>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A630" s="15"/>
-      <c r="D630" s="15"/>
+      <c r="A630" s="14"/>
+      <c r="D630" s="14"/>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A631" s="15"/>
-      <c r="D631" s="15"/>
+      <c r="A631" s="14"/>
+      <c r="D631" s="14"/>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A632" s="15"/>
-      <c r="D632" s="15"/>
+      <c r="A632" s="14"/>
+      <c r="D632" s="14"/>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A633" s="15"/>
-      <c r="D633" s="15"/>
+      <c r="A633" s="14"/>
+      <c r="D633" s="14"/>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A634" s="15"/>
-      <c r="D634" s="15"/>
+      <c r="A634" s="14"/>
+      <c r="D634" s="14"/>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A635" s="15"/>
-      <c r="D635" s="15"/>
+      <c r="A635" s="14"/>
+      <c r="D635" s="14"/>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A636" s="15"/>
-      <c r="D636" s="15"/>
+      <c r="A636" s="14"/>
+      <c r="D636" s="14"/>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A637" s="15"/>
-      <c r="D637" s="15"/>
+      <c r="A637" s="14"/>
+      <c r="D637" s="14"/>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A638" s="15"/>
-      <c r="D638" s="15"/>
+      <c r="A638" s="14"/>
+      <c r="D638" s="14"/>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A639" s="15"/>
-      <c r="D639" s="15"/>
+      <c r="A639" s="14"/>
+      <c r="D639" s="14"/>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A640" s="15"/>
-      <c r="D640" s="15"/>
+      <c r="A640" s="14"/>
+      <c r="D640" s="14"/>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A641" s="15"/>
-      <c r="D641" s="15"/>
+      <c r="A641" s="14"/>
+      <c r="D641" s="14"/>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A642" s="15"/>
-      <c r="D642" s="15"/>
+      <c r="A642" s="14"/>
+      <c r="D642" s="14"/>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A643" s="15"/>
-      <c r="D643" s="15"/>
+      <c r="A643" s="14"/>
+      <c r="D643" s="14"/>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A644" s="15"/>
-      <c r="D644" s="15"/>
+      <c r="A644" s="14"/>
+      <c r="D644" s="14"/>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A645" s="15"/>
-      <c r="D645" s="15"/>
+      <c r="A645" s="14"/>
+      <c r="D645" s="14"/>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A646" s="15"/>
-      <c r="D646" s="15"/>
+      <c r="A646" s="14"/>
+      <c r="D646" s="14"/>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A647" s="15"/>
-      <c r="D647" s="15"/>
+      <c r="A647" s="14"/>
+      <c r="D647" s="14"/>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A648" s="15"/>
-      <c r="D648" s="15"/>
+      <c r="A648" s="14"/>
+      <c r="D648" s="14"/>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A649" s="15"/>
-      <c r="D649" s="15"/>
+      <c r="A649" s="14"/>
+      <c r="D649" s="14"/>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A650" s="15"/>
-      <c r="D650" s="15"/>
+      <c r="A650" s="14"/>
+      <c r="D650" s="14"/>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A651" s="15"/>
-      <c r="D651" s="15"/>
+      <c r="A651" s="14"/>
+      <c r="D651" s="14"/>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A652" s="15"/>
-      <c r="D652" s="15"/>
+      <c r="A652" s="14"/>
+      <c r="D652" s="14"/>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A653" s="15"/>
-      <c r="D653" s="15"/>
+      <c r="A653" s="14"/>
+      <c r="D653" s="14"/>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A654" s="15"/>
-      <c r="D654" s="15"/>
+      <c r="A654" s="14"/>
+      <c r="D654" s="14"/>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A655" s="15"/>
-      <c r="D655" s="15"/>
+      <c r="A655" s="14"/>
+      <c r="D655" s="14"/>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A656" s="15"/>
-      <c r="D656" s="15"/>
+      <c r="A656" s="14"/>
+      <c r="D656" s="14"/>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A657" s="15"/>
-      <c r="D657" s="15"/>
+      <c r="A657" s="14"/>
+      <c r="D657" s="14"/>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A658" s="15"/>
-      <c r="D658" s="15"/>
+      <c r="A658" s="14"/>
+      <c r="D658" s="14"/>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A659" s="15"/>
-      <c r="D659" s="15"/>
+      <c r="A659" s="14"/>
+      <c r="D659" s="14"/>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A660" s="15"/>
-      <c r="D660" s="15"/>
+      <c r="A660" s="14"/>
+      <c r="D660" s="14"/>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A661" s="15"/>
-      <c r="D661" s="15"/>
+      <c r="A661" s="14"/>
+      <c r="D661" s="14"/>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A662" s="15"/>
-      <c r="D662" s="15"/>
+      <c r="A662" s="14"/>
+      <c r="D662" s="14"/>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A663" s="15"/>
-      <c r="D663" s="15"/>
+      <c r="A663" s="14"/>
+      <c r="D663" s="14"/>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A664" s="15"/>
-      <c r="D664" s="15"/>
+      <c r="A664" s="14"/>
+      <c r="D664" s="14"/>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A665" s="15"/>
-      <c r="D665" s="15"/>
+      <c r="A665" s="14"/>
+      <c r="D665" s="14"/>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A666" s="15"/>
-      <c r="D666" s="15"/>
+      <c r="A666" s="14"/>
+      <c r="D666" s="14"/>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A667" s="15"/>
-      <c r="D667" s="15"/>
+      <c r="A667" s="14"/>
+      <c r="D667" s="14"/>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A668" s="15"/>
-      <c r="D668" s="15"/>
+      <c r="A668" s="14"/>
+      <c r="D668" s="14"/>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A669" s="15"/>
-      <c r="D669" s="15"/>
+      <c r="A669" s="14"/>
+      <c r="D669" s="14"/>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A670" s="15"/>
-      <c r="D670" s="15"/>
+      <c r="A670" s="14"/>
+      <c r="D670" s="14"/>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A671" s="15"/>
-      <c r="D671" s="15"/>
+      <c r="A671" s="14"/>
+      <c r="D671" s="14"/>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A672" s="15"/>
-      <c r="D672" s="15"/>
+      <c r="A672" s="14"/>
+      <c r="D672" s="14"/>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A673" s="15"/>
-      <c r="D673" s="15"/>
+      <c r="A673" s="14"/>
+      <c r="D673" s="14"/>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A674" s="15"/>
-      <c r="D674" s="15"/>
+      <c r="A674" s="14"/>
+      <c r="D674" s="14"/>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A675" s="15"/>
-      <c r="D675" s="15"/>
+      <c r="A675" s="14"/>
+      <c r="D675" s="14"/>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A676" s="15"/>
-      <c r="D676" s="15"/>
+      <c r="A676" s="14"/>
+      <c r="D676" s="14"/>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A677" s="15"/>
-      <c r="D677" s="15"/>
+      <c r="A677" s="14"/>
+      <c r="D677" s="14"/>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A678" s="15"/>
-      <c r="D678" s="15"/>
+      <c r="A678" s="14"/>
+      <c r="D678" s="14"/>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A679" s="15"/>
-      <c r="D679" s="15"/>
+      <c r="A679" s="14"/>
+      <c r="D679" s="14"/>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A680" s="15"/>
-      <c r="D680" s="15"/>
+      <c r="A680" s="14"/>
+      <c r="D680" s="14"/>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A681" s="15"/>
-      <c r="D681" s="15"/>
+      <c r="A681" s="14"/>
+      <c r="D681" s="14"/>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A682" s="15"/>
-      <c r="D682" s="15"/>
+      <c r="A682" s="14"/>
+      <c r="D682" s="14"/>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A683" s="15"/>
-      <c r="D683" s="15"/>
+      <c r="A683" s="14"/>
+      <c r="D683" s="14"/>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A684" s="15"/>
-      <c r="D684" s="15"/>
+      <c r="A684" s="14"/>
+      <c r="D684" s="14"/>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A685" s="15"/>
-      <c r="D685" s="15"/>
+      <c r="A685" s="14"/>
+      <c r="D685" s="14"/>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A686" s="15"/>
-      <c r="D686" s="15"/>
+      <c r="A686" s="14"/>
+      <c r="D686" s="14"/>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A687" s="15"/>
-      <c r="D687" s="15"/>
+      <c r="A687" s="14"/>
+      <c r="D687" s="14"/>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A688" s="15"/>
-      <c r="D688" s="15"/>
+      <c r="A688" s="14"/>
+      <c r="D688" s="14"/>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A689" s="15"/>
-      <c r="D689" s="15"/>
+      <c r="A689" s="14"/>
+      <c r="D689" s="14"/>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A690" s="15"/>
-      <c r="D690" s="15"/>
+      <c r="A690" s="14"/>
+      <c r="D690" s="14"/>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A691" s="15"/>
-      <c r="D691" s="15"/>
+      <c r="A691" s="14"/>
+      <c r="D691" s="14"/>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A692" s="15"/>
-      <c r="D692" s="15"/>
+      <c r="A692" s="14"/>
+      <c r="D692" s="14"/>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A693" s="15"/>
-      <c r="D693" s="15"/>
+      <c r="A693" s="14"/>
+      <c r="D693" s="14"/>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A694" s="15"/>
-      <c r="D694" s="15"/>
+      <c r="A694" s="14"/>
+      <c r="D694" s="14"/>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A695" s="15"/>
-      <c r="D695" s="15"/>
+      <c r="A695" s="14"/>
+      <c r="D695" s="14"/>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A696" s="15"/>
-      <c r="D696" s="15"/>
+      <c r="A696" s="14"/>
+      <c r="D696" s="14"/>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A697" s="15"/>
-      <c r="D697" s="15"/>
+      <c r="A697" s="14"/>
+      <c r="D697" s="14"/>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A698" s="15"/>
-      <c r="D698" s="15"/>
+      <c r="A698" s="14"/>
+      <c r="D698" s="14"/>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A699" s="15"/>
-      <c r="D699" s="15"/>
+      <c r="A699" s="14"/>
+      <c r="D699" s="14"/>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A700" s="15"/>
-      <c r="D700" s="15"/>
+      <c r="A700" s="14"/>
+      <c r="D700" s="14"/>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A701" s="15"/>
-      <c r="D701" s="15"/>
+      <c r="A701" s="14"/>
+      <c r="D701" s="14"/>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A702" s="15"/>
-      <c r="D702" s="15"/>
+      <c r="A702" s="14"/>
+      <c r="D702" s="14"/>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A703" s="15"/>
-      <c r="D703" s="15"/>
+      <c r="A703" s="14"/>
+      <c r="D703" s="14"/>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A704" s="15"/>
-      <c r="D704" s="15"/>
+      <c r="A704" s="14"/>
+      <c r="D704" s="14"/>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A705" s="15"/>
-      <c r="D705" s="15"/>
+      <c r="A705" s="14"/>
+      <c r="D705" s="14"/>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A706" s="15"/>
-      <c r="D706" s="15"/>
+      <c r="A706" s="14"/>
+      <c r="D706" s="14"/>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A707" s="15"/>
-      <c r="D707" s="15"/>
+      <c r="A707" s="14"/>
+      <c r="D707" s="14"/>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A708" s="15"/>
-      <c r="D708" s="15"/>
+      <c r="A708" s="14"/>
+      <c r="D708" s="14"/>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A709" s="15"/>
-      <c r="D709" s="15"/>
+      <c r="A709" s="14"/>
+      <c r="D709" s="14"/>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A710" s="15"/>
-      <c r="D710" s="15"/>
+      <c r="A710" s="14"/>
+      <c r="D710" s="14"/>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A711" s="15"/>
-      <c r="D711" s="15"/>
+      <c r="A711" s="14"/>
+      <c r="D711" s="14"/>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A712" s="15"/>
-      <c r="D712" s="15"/>
+      <c r="A712" s="14"/>
+      <c r="D712" s="14"/>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A713" s="15"/>
-      <c r="D713" s="15"/>
+      <c r="A713" s="14"/>
+      <c r="D713" s="14"/>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A714" s="15"/>
-      <c r="D714" s="15"/>
+      <c r="A714" s="14"/>
+      <c r="D714" s="14"/>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A715" s="15"/>
-      <c r="D715" s="15"/>
+      <c r="A715" s="14"/>
+      <c r="D715" s="14"/>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A716" s="15"/>
-      <c r="D716" s="15"/>
+      <c r="A716" s="14"/>
+      <c r="D716" s="14"/>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A717" s="15"/>
-      <c r="D717" s="15"/>
+      <c r="A717" s="14"/>
+      <c r="D717" s="14"/>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A718" s="15"/>
-      <c r="D718" s="15"/>
+      <c r="A718" s="14"/>
+      <c r="D718" s="14"/>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A719" s="15"/>
-      <c r="D719" s="15"/>
+      <c r="A719" s="14"/>
+      <c r="D719" s="14"/>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A720" s="15"/>
-      <c r="D720" s="15"/>
+      <c r="A720" s="14"/>
+      <c r="D720" s="14"/>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A721" s="15"/>
-      <c r="D721" s="15"/>
+      <c r="A721" s="14"/>
+      <c r="D721" s="14"/>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A722" s="15"/>
-      <c r="D722" s="15"/>
+      <c r="A722" s="14"/>
+      <c r="D722" s="14"/>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A723" s="15"/>
-      <c r="D723" s="15"/>
+      <c r="A723" s="14"/>
+      <c r="D723" s="14"/>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A724" s="15"/>
-      <c r="D724" s="15"/>
+      <c r="A724" s="14"/>
+      <c r="D724" s="14"/>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A725" s="15"/>
-      <c r="D725" s="15"/>
+      <c r="A725" s="14"/>
+      <c r="D725" s="14"/>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A726" s="15"/>
-      <c r="D726" s="15"/>
+      <c r="A726" s="14"/>
+      <c r="D726" s="14"/>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A727" s="15"/>
-      <c r="D727" s="15"/>
+      <c r="A727" s="14"/>
+      <c r="D727" s="14"/>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A728" s="15"/>
-      <c r="D728" s="15"/>
+      <c r="A728" s="14"/>
+      <c r="D728" s="14"/>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A729" s="15"/>
-      <c r="D729" s="15"/>
+      <c r="A729" s="14"/>
+      <c r="D729" s="14"/>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A730" s="15"/>
-      <c r="D730" s="15"/>
+      <c r="A730" s="14"/>
+      <c r="D730" s="14"/>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A731" s="15"/>
-      <c r="D731" s="15"/>
+      <c r="A731" s="14"/>
+      <c r="D731" s="14"/>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A732" s="15"/>
-      <c r="D732" s="15"/>
+      <c r="A732" s="14"/>
+      <c r="D732" s="14"/>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A733" s="15"/>
-      <c r="D733" s="15"/>
+      <c r="A733" s="14"/>
+      <c r="D733" s="14"/>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A734" s="15"/>
-      <c r="D734" s="15"/>
+      <c r="A734" s="14"/>
+      <c r="D734" s="14"/>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A735" s="15"/>
-      <c r="D735" s="15"/>
+      <c r="A735" s="14"/>
+      <c r="D735" s="14"/>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A736" s="15"/>
-      <c r="D736" s="15"/>
+      <c r="A736" s="14"/>
+      <c r="D736" s="14"/>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A737" s="15"/>
-      <c r="D737" s="15"/>
+      <c r="A737" s="14"/>
+      <c r="D737" s="14"/>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A738" s="15"/>
-      <c r="D738" s="15"/>
+      <c r="A738" s="14"/>
+      <c r="D738" s="14"/>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A739" s="15"/>
-      <c r="D739" s="15"/>
+      <c r="A739" s="14"/>
+      <c r="D739" s="14"/>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A740" s="15"/>
-      <c r="D740" s="15"/>
+      <c r="A740" s="14"/>
+      <c r="D740" s="14"/>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A741" s="15"/>
-      <c r="D741" s="15"/>
+      <c r="A741" s="14"/>
+      <c r="D741" s="14"/>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A742" s="15"/>
-      <c r="D742" s="15"/>
+      <c r="A742" s="14"/>
+      <c r="D742" s="14"/>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A743" s="15"/>
-      <c r="D743" s="15"/>
+      <c r="A743" s="14"/>
+      <c r="D743" s="14"/>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A744" s="15"/>
-      <c r="D744" s="15"/>
+      <c r="A744" s="14"/>
+      <c r="D744" s="14"/>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A745" s="15"/>
-      <c r="D745" s="15"/>
+      <c r="A745" s="14"/>
+      <c r="D745" s="14"/>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A746" s="15"/>
-      <c r="D746" s="15"/>
+      <c r="A746" s="14"/>
+      <c r="D746" s="14"/>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A747" s="15"/>
-      <c r="D747" s="15"/>
+      <c r="A747" s="14"/>
+      <c r="D747" s="14"/>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A748" s="15"/>
-      <c r="D748" s="15"/>
+      <c r="A748" s="14"/>
+      <c r="D748" s="14"/>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A749" s="15"/>
-      <c r="D749" s="15"/>
+      <c r="A749" s="14"/>
+      <c r="D749" s="14"/>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A750" s="15"/>
-      <c r="D750" s="15"/>
+      <c r="A750" s="14"/>
+      <c r="D750" s="14"/>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A751" s="15"/>
-      <c r="D751" s="15"/>
+      <c r="A751" s="14"/>
+      <c r="D751" s="14"/>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A752" s="15"/>
-      <c r="D752" s="15"/>
+      <c r="A752" s="14"/>
+      <c r="D752" s="14"/>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A753" s="15"/>
-      <c r="D753" s="15"/>
+      <c r="A753" s="14"/>
+      <c r="D753" s="14"/>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A754" s="15"/>
-      <c r="D754" s="15"/>
+      <c r="A754" s="14"/>
+      <c r="D754" s="14"/>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A755" s="15"/>
-      <c r="D755" s="15"/>
+      <c r="A755" s="14"/>
+      <c r="D755" s="14"/>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A756" s="15"/>
-      <c r="D756" s="15"/>
+      <c r="A756" s="14"/>
+      <c r="D756" s="14"/>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A757" s="15"/>
-      <c r="D757" s="15"/>
+      <c r="A757" s="14"/>
+      <c r="D757" s="14"/>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A758" s="15"/>
-      <c r="D758" s="15"/>
+      <c r="A758" s="14"/>
+      <c r="D758" s="14"/>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A759" s="15"/>
-      <c r="D759" s="15"/>
+      <c r="A759" s="14"/>
+      <c r="D759" s="14"/>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A760" s="15"/>
-      <c r="D760" s="15"/>
+      <c r="A760" s="14"/>
+      <c r="D760" s="14"/>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A761" s="15"/>
-      <c r="D761" s="15"/>
+      <c r="A761" s="14"/>
+      <c r="D761" s="14"/>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A762" s="15"/>
-      <c r="D762" s="15"/>
+      <c r="A762" s="14"/>
+      <c r="D762" s="14"/>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A763" s="15"/>
-      <c r="D763" s="15"/>
+      <c r="A763" s="14"/>
+      <c r="D763" s="14"/>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A764" s="15"/>
-      <c r="D764" s="15"/>
+      <c r="A764" s="14"/>
+      <c r="D764" s="14"/>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A765" s="15"/>
-      <c r="D765" s="15"/>
+      <c r="A765" s="14"/>
+      <c r="D765" s="14"/>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A766" s="15"/>
-      <c r="D766" s="15"/>
+      <c r="A766" s="14"/>
+      <c r="D766" s="14"/>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A767" s="15"/>
-      <c r="D767" s="15"/>
+      <c r="A767" s="14"/>
+      <c r="D767" s="14"/>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A768" s="15"/>
-      <c r="D768" s="15"/>
+      <c r="A768" s="14"/>
+      <c r="D768" s="14"/>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A769" s="15"/>
-      <c r="D769" s="15"/>
+      <c r="A769" s="14"/>
+      <c r="D769" s="14"/>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A770" s="15"/>
-      <c r="D770" s="15"/>
+      <c r="A770" s="14"/>
+      <c r="D770" s="14"/>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A771" s="15"/>
-      <c r="D771" s="15"/>
+      <c r="A771" s="14"/>
+      <c r="D771" s="14"/>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A772" s="15"/>
-      <c r="D772" s="15"/>
+      <c r="A772" s="14"/>
+      <c r="D772" s="14"/>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A773" s="15"/>
-      <c r="D773" s="15"/>
+      <c r="A773" s="14"/>
+      <c r="D773" s="14"/>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A774" s="15"/>
-      <c r="D774" s="15"/>
+      <c r="A774" s="14"/>
+      <c r="D774" s="14"/>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A775" s="15"/>
-      <c r="D775" s="15"/>
+      <c r="A775" s="14"/>
+      <c r="D775" s="14"/>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A776" s="15"/>
-      <c r="D776" s="15"/>
+      <c r="A776" s="14"/>
+      <c r="D776" s="14"/>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A777" s="15"/>
-      <c r="D777" s="15"/>
+      <c r="A777" s="14"/>
+      <c r="D777" s="14"/>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A778" s="15"/>
-      <c r="D778" s="15"/>
+      <c r="A778" s="14"/>
+      <c r="D778" s="14"/>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A779" s="15"/>
-      <c r="D779" s="15"/>
+      <c r="A779" s="14"/>
+      <c r="D779" s="14"/>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A780" s="15"/>
-      <c r="D780" s="15"/>
+      <c r="A780" s="14"/>
+      <c r="D780" s="14"/>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A781" s="15"/>
-      <c r="D781" s="15"/>
+      <c r="A781" s="14"/>
+      <c r="D781" s="14"/>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A782" s="15"/>
-      <c r="D782" s="15"/>
+      <c r="A782" s="14"/>
+      <c r="D782" s="14"/>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A783" s="15"/>
-      <c r="D783" s="15"/>
+      <c r="A783" s="14"/>
+      <c r="D783" s="14"/>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A784" s="15"/>
-      <c r="D784" s="15"/>
+      <c r="A784" s="14"/>
+      <c r="D784" s="14"/>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A785" s="15"/>
-      <c r="D785" s="15"/>
+      <c r="A785" s="14"/>
+      <c r="D785" s="14"/>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A786" s="15"/>
-      <c r="D786" s="15"/>
+      <c r="A786" s="14"/>
+      <c r="D786" s="14"/>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A787" s="15"/>
-      <c r="D787" s="15"/>
+      <c r="A787" s="14"/>
+      <c r="D787" s="14"/>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A788" s="15"/>
-      <c r="D788" s="15"/>
+      <c r="A788" s="14"/>
+      <c r="D788" s="14"/>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A789" s="15"/>
-      <c r="D789" s="15"/>
+      <c r="A789" s="14"/>
+      <c r="D789" s="14"/>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A790" s="15"/>
-      <c r="D790" s="15"/>
+      <c r="A790" s="14"/>
+      <c r="D790" s="14"/>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A791" s="15"/>
-      <c r="D791" s="15"/>
+      <c r="A791" s="14"/>
+      <c r="D791" s="14"/>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A792" s="15"/>
-      <c r="D792" s="15"/>
+      <c r="A792" s="14"/>
+      <c r="D792" s="14"/>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A793" s="15"/>
-      <c r="D793" s="15"/>
+      <c r="A793" s="14"/>
+      <c r="D793" s="14"/>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A794" s="15"/>
-      <c r="D794" s="15"/>
+      <c r="A794" s="14"/>
+      <c r="D794" s="14"/>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A795" s="15"/>
-      <c r="D795" s="15"/>
+      <c r="A795" s="14"/>
+      <c r="D795" s="14"/>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A796" s="15"/>
-      <c r="D796" s="15"/>
+      <c r="A796" s="14"/>
+      <c r="D796" s="14"/>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A797" s="15"/>
-      <c r="D797" s="15"/>
+      <c r="A797" s="14"/>
+      <c r="D797" s="14"/>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A798" s="15"/>
-      <c r="D798" s="15"/>
+      <c r="A798" s="14"/>
+      <c r="D798" s="14"/>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A799" s="15"/>
-      <c r="D799" s="15"/>
+      <c r="A799" s="14"/>
+      <c r="D799" s="14"/>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A800" s="15"/>
-      <c r="D800" s="15"/>
+      <c r="A800" s="14"/>
+      <c r="D800" s="14"/>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A801" s="15"/>
-      <c r="D801" s="15"/>
+      <c r="A801" s="14"/>
+      <c r="D801" s="14"/>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A802" s="15"/>
-      <c r="D802" s="15"/>
+      <c r="A802" s="14"/>
+      <c r="D802" s="14"/>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A803" s="15"/>
-      <c r="D803" s="15"/>
+      <c r="A803" s="14"/>
+      <c r="D803" s="14"/>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A804" s="15"/>
-      <c r="D804" s="15"/>
+      <c r="A804" s="14"/>
+      <c r="D804" s="14"/>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A805" s="15"/>
-      <c r="D805" s="15"/>
+      <c r="A805" s="14"/>
+      <c r="D805" s="14"/>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A806" s="15"/>
-      <c r="D806" s="15"/>
+      <c r="A806" s="14"/>
+      <c r="D806" s="14"/>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A807" s="15"/>
-      <c r="D807" s="15"/>
+      <c r="A807" s="14"/>
+      <c r="D807" s="14"/>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A808" s="15"/>
-      <c r="D808" s="15"/>
+      <c r="A808" s="14"/>
+      <c r="D808" s="14"/>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A809" s="15"/>
-      <c r="D809" s="15"/>
+      <c r="A809" s="14"/>
+      <c r="D809" s="14"/>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A810" s="15"/>
-      <c r="D810" s="15"/>
+      <c r="A810" s="14"/>
+      <c r="D810" s="14"/>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A811" s="15"/>
-      <c r="D811" s="15"/>
+      <c r="A811" s="14"/>
+      <c r="D811" s="14"/>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A812" s="15"/>
-      <c r="D812" s="15"/>
+      <c r="A812" s="14"/>
+      <c r="D812" s="14"/>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A813" s="15"/>
-      <c r="D813" s="15"/>
+      <c r="A813" s="14"/>
+      <c r="D813" s="14"/>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A814" s="15"/>
-      <c r="D814" s="15"/>
+      <c r="A814" s="14"/>
+      <c r="D814" s="14"/>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A815" s="15"/>
-      <c r="D815" s="15"/>
+      <c r="A815" s="14"/>
+      <c r="D815" s="14"/>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A816" s="15"/>
-      <c r="D816" s="15"/>
+      <c r="A816" s="14"/>
+      <c r="D816" s="14"/>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A817" s="15"/>
-      <c r="D817" s="15"/>
+      <c r="A817" s="14"/>
+      <c r="D817" s="14"/>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A818" s="15"/>
-      <c r="D818" s="15"/>
+      <c r="A818" s="14"/>
+      <c r="D818" s="14"/>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A819" s="15"/>
-      <c r="D819" s="15"/>
+      <c r="A819" s="14"/>
+      <c r="D819" s="14"/>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A820" s="15"/>
-      <c r="D820" s="15"/>
+      <c r="A820" s="14"/>
+      <c r="D820" s="14"/>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A821" s="15"/>
-      <c r="D821" s="15"/>
+      <c r="A821" s="14"/>
+      <c r="D821" s="14"/>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A822" s="15"/>
-      <c r="D822" s="15"/>
+      <c r="A822" s="14"/>
+      <c r="D822" s="14"/>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A823" s="15"/>
-      <c r="D823" s="15"/>
+      <c r="A823" s="14"/>
+      <c r="D823" s="14"/>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A824" s="15"/>
-      <c r="D824" s="15"/>
+      <c r="A824" s="14"/>
+      <c r="D824" s="14"/>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A825" s="15"/>
-      <c r="D825" s="15"/>
+      <c r="A825" s="14"/>
+      <c r="D825" s="14"/>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A826" s="15"/>
-      <c r="D826" s="15"/>
+      <c r="A826" s="14"/>
+      <c r="D826" s="14"/>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A827" s="15"/>
-      <c r="D827" s="15"/>
+      <c r="A827" s="14"/>
+      <c r="D827" s="14"/>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A828" s="15"/>
-      <c r="D828" s="15"/>
+      <c r="A828" s="14"/>
+      <c r="D828" s="14"/>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A829" s="15"/>
-      <c r="D829" s="15"/>
+      <c r="A829" s="14"/>
+      <c r="D829" s="14"/>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A830" s="15"/>
-      <c r="D830" s="15"/>
+      <c r="A830" s="14"/>
+      <c r="D830" s="14"/>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A831" s="15"/>
-      <c r="D831" s="15"/>
+      <c r="A831" s="14"/>
+      <c r="D831" s="14"/>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A832" s="15"/>
-      <c r="D832" s="15"/>
+      <c r="A832" s="14"/>
+      <c r="D832" s="14"/>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A833" s="15"/>
-      <c r="D833" s="15"/>
+      <c r="A833" s="14"/>
+      <c r="D833" s="14"/>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A834" s="15"/>
-      <c r="D834" s="15"/>
+      <c r="A834" s="14"/>
+      <c r="D834" s="14"/>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A835" s="15"/>
-      <c r="D835" s="15"/>
+      <c r="A835" s="14"/>
+      <c r="D835" s="14"/>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A836" s="15"/>
-      <c r="D836" s="15"/>
+      <c r="A836" s="14"/>
+      <c r="D836" s="14"/>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A837" s="15"/>
-      <c r="D837" s="15"/>
+      <c r="A837" s="14"/>
+      <c r="D837" s="14"/>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A838" s="15"/>
-      <c r="D838" s="15"/>
+      <c r="A838" s="14"/>
+      <c r="D838" s="14"/>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A839" s="15"/>
-      <c r="D839" s="15"/>
+      <c r="A839" s="14"/>
+      <c r="D839" s="14"/>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A840" s="15"/>
-      <c r="D840" s="15"/>
+      <c r="A840" s="14"/>
+      <c r="D840" s="14"/>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A841" s="15"/>
-      <c r="D841" s="15"/>
+      <c r="A841" s="14"/>
+      <c r="D841" s="14"/>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A842" s="15"/>
-      <c r="D842" s="15"/>
+      <c r="A842" s="14"/>
+      <c r="D842" s="14"/>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A843" s="15"/>
-      <c r="D843" s="15"/>
+      <c r="A843" s="14"/>
+      <c r="D843" s="14"/>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A844" s="15"/>
-      <c r="D844" s="15"/>
+      <c r="A844" s="14"/>
+      <c r="D844" s="14"/>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A845" s="15"/>
-      <c r="D845" s="15"/>
+      <c r="A845" s="14"/>
+      <c r="D845" s="14"/>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A846" s="15"/>
-      <c r="D846" s="15"/>
+      <c r="A846" s="14"/>
+      <c r="D846" s="14"/>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A847" s="15"/>
-      <c r="D847" s="15"/>
+      <c r="A847" s="14"/>
+      <c r="D847" s="14"/>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A848" s="15"/>
-      <c r="D848" s="15"/>
+      <c r="A848" s="14"/>
+      <c r="D848" s="14"/>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A849" s="15"/>
-      <c r="D849" s="15"/>
+      <c r="A849" s="14"/>
+      <c r="D849" s="14"/>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A850" s="15"/>
-      <c r="D850" s="15"/>
+      <c r="A850" s="14"/>
+      <c r="D850" s="14"/>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A851" s="15"/>
-      <c r="D851" s="15"/>
+      <c r="A851" s="14"/>
+      <c r="D851" s="14"/>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A852" s="15"/>
-      <c r="D852" s="15"/>
+      <c r="A852" s="14"/>
+      <c r="D852" s="14"/>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A853" s="15"/>
-      <c r="D853" s="15"/>
+      <c r="A853" s="14"/>
+      <c r="D853" s="14"/>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A854" s="15"/>
-      <c r="D854" s="15"/>
+      <c r="A854" s="14"/>
+      <c r="D854" s="14"/>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A855" s="15"/>
-      <c r="D855" s="15"/>
+      <c r="A855" s="14"/>
+      <c r="D855" s="14"/>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A856" s="15"/>
-      <c r="D856" s="15"/>
+      <c r="A856" s="14"/>
+      <c r="D856" s="14"/>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A857" s="15"/>
-      <c r="D857" s="15"/>
+      <c r="A857" s="14"/>
+      <c r="D857" s="14"/>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A858" s="15"/>
-      <c r="D858" s="15"/>
+      <c r="A858" s="14"/>
+      <c r="D858" s="14"/>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A859" s="15"/>
-      <c r="D859" s="15"/>
+      <c r="A859" s="14"/>
+      <c r="D859" s="14"/>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A860" s="15"/>
-      <c r="D860" s="15"/>
+      <c r="A860" s="14"/>
+      <c r="D860" s="14"/>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A861" s="15"/>
-      <c r="D861" s="15"/>
+      <c r="A861" s="14"/>
+      <c r="D861" s="14"/>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A862" s="15"/>
-      <c r="D862" s="15"/>
+      <c r="A862" s="14"/>
+      <c r="D862" s="14"/>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A863" s="15"/>
-      <c r="D863" s="15"/>
+      <c r="A863" s="14"/>
+      <c r="D863" s="14"/>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A864" s="15"/>
-      <c r="D864" s="15"/>
+      <c r="A864" s="14"/>
+      <c r="D864" s="14"/>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A865" s="15"/>
-      <c r="D865" s="15"/>
+      <c r="A865" s="14"/>
+      <c r="D865" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wdc_libs/parsers/wdc-timeline/timeline.xlsx
+++ b/wdc_libs/parsers/wdc-timeline/timeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="15120" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="15120" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="5" r:id="rId1"/>
@@ -1036,7 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J3" activeCellId="1" sqref="J3 J3"/>
     </sheetView>
   </sheetViews>
@@ -1431,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
